--- a/Spreadsheet folor colors.xlsx
+++ b/Spreadsheet folor colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tedtschopp/Documents/Projects/The-Trojan-Reach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC36A65-B40C-D946-9E04-3FA7319D94DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C10164-65BE-9E45-85AE-317370A088B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40220" yWindow="460" windowWidth="40220" windowHeight="22580" xr2:uid="{6F2434AC-E79C-0142-B575-E0B786FAEA76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1208">
   <si>
     <t>Hex</t>
   </si>
@@ -3755,7 +3755,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF9EFE1F-3B8F-4943-BB51-E6532B6048A7}" name="Table1" displayName="Table1" ref="A3:N331" totalsRowShown="0">
-  <autoFilter ref="A3:N331" xr:uid="{0CF96B8F-D17A-FF43-B9F5-0077A9036580}"/>
+  <autoFilter ref="A3:N331" xr:uid="{0CF96B8F-D17A-FF43-B9F5-0077A9036580}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="NaDr"/>
+        <filter val="NaXX"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N331">
     <sortCondition ref="N3:N331"/>
   </sortState>
@@ -3780,10 +3787,10 @@
     <tableColumn id="12" xr3:uid="{B780B3C1-0C29-AD47-9E54-B05401338F3A}" name="Column12" dataDxfId="2">
       <calculatedColumnFormula>TEXT(Table1[[#This Row],[Column1]],"0000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{6E36440C-866B-BE4B-AC37-0E57FDB497E9}" name="Column13" dataDxfId="1">
-      <calculatedColumnFormula>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{6E36440C-866B-BE4B-AC37-0E57FDB497E9}" name="Column13" dataDxfId="0">
+      <calculatedColumnFormula>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{61A703F2-7EDA-0F4B-99FB-49DEF7E5A282}" name="Column14" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{61A703F2-7EDA-0F4B-99FB-49DEF7E5A282}" name="Column14" dataDxfId="1">
       <calculatedColumnFormula>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4090,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D6CE32-C799-DD40-AEDF-045132FF1969}">
   <dimension ref="A1:O331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B210" workbookViewId="0">
-      <selection activeCell="N237" sqref="N237:N331"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4102,6 +4109,7 @@
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4218,7 +4226,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" hidden="1">
       <c r="A4">
         <v>110</v>
       </c>
@@ -4254,15 +4262,15 @@
         <v>0110</v>
       </c>
       <c r="M4" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0110&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0110&lt;/Border&gt;</v>
       </c>
       <c r="N4" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0110&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" hidden="1">
       <c r="A5">
         <v>210</v>
       </c>
@@ -4298,15 +4306,15 @@
         <v>0210</v>
       </c>
       <c r="M5" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0210&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0210&lt;/Border&gt;</v>
       </c>
       <c r="N5" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0210&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1">
       <c r="A6">
         <v>310</v>
       </c>
@@ -4342,15 +4350,15 @@
         <v>0310</v>
       </c>
       <c r="M6" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0310&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0310&lt;/Border&gt;</v>
       </c>
       <c r="N6" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0310&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" hidden="1">
       <c r="A7">
         <v>403</v>
       </c>
@@ -4386,15 +4394,15 @@
         <v>0403</v>
       </c>
       <c r="M7" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0403&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0403&lt;/Border&gt;</v>
       </c>
       <c r="N7" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0403&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1">
       <c r="A8">
         <v>503</v>
       </c>
@@ -4430,15 +4438,15 @@
         <v>0503</v>
       </c>
       <c r="M8" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0503&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0503&lt;/Border&gt;</v>
       </c>
       <c r="N8" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0503&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" hidden="1">
       <c r="A9">
         <v>504</v>
       </c>
@@ -4474,15 +4482,15 @@
         <v>0504</v>
       </c>
       <c r="M9" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0504&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0504&lt;/Border&gt;</v>
       </c>
       <c r="N9" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0504&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1">
       <c r="A10">
         <v>505</v>
       </c>
@@ -4518,15 +4526,15 @@
         <v>0505</v>
       </c>
       <c r="M10" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0505&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0505&lt;/Border&gt;</v>
       </c>
       <c r="N10" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0505&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" hidden="1">
       <c r="A11">
         <v>510</v>
       </c>
@@ -4562,15 +4570,15 @@
         <v>0510</v>
       </c>
       <c r="M11" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0510&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0510&lt;/Border&gt;</v>
       </c>
       <c r="N11" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0510&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1">
       <c r="A12">
         <v>909</v>
       </c>
@@ -4606,15 +4614,15 @@
         <v>0909</v>
       </c>
       <c r="M12" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0909&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0909&lt;/Border&gt;</v>
       </c>
       <c r="N12" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0909&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" hidden="1">
       <c r="A13">
         <v>1005</v>
       </c>
@@ -4650,15 +4658,15 @@
         <v>1005</v>
       </c>
       <c r="M13" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1005&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1005&lt;/Border&gt;</v>
       </c>
       <c r="N13" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1005&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" hidden="1">
       <c r="A14">
         <v>1106</v>
       </c>
@@ -4694,15 +4702,15 @@
         <v>1106</v>
       </c>
       <c r="M14" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1106&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;1106&lt;/Border&gt;</v>
       </c>
       <c r="N14" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;1106&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" hidden="1">
       <c r="A15">
         <v>1202</v>
       </c>
@@ -4738,15 +4746,15 @@
         <v>1202</v>
       </c>
       <c r="M15" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1202&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1202&lt;/Border&gt;</v>
       </c>
       <c r="N15" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1202&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1">
       <c r="A16">
         <v>1308</v>
       </c>
@@ -4782,15 +4790,15 @@
         <v>1308</v>
       </c>
       <c r="M16" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1308&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;1308&lt;/Border&gt;</v>
       </c>
       <c r="N16" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;1308&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1">
       <c r="A17">
         <v>1810</v>
       </c>
@@ -4826,15 +4834,15 @@
         <v>1810</v>
       </c>
       <c r="M17" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1810&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1810&lt;/Border&gt;</v>
       </c>
       <c r="N17" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1810&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1">
       <c r="A18">
         <v>1906</v>
       </c>
@@ -4870,15 +4878,15 @@
         <v>1906</v>
       </c>
       <c r="M18" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1906&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1906&lt;/Border&gt;</v>
       </c>
       <c r="N18" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1906&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -4914,15 +4922,15 @@
         <v>2002</v>
       </c>
       <c r="M19" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2002&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2002&lt;/Border&gt;</v>
       </c>
       <c r="N19" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2002&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -4958,15 +4966,15 @@
         <v>2008</v>
       </c>
       <c r="M20" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2008&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2008&lt;/Border&gt;</v>
       </c>
       <c r="N20" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2008&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1">
       <c r="A21">
         <v>2102</v>
       </c>
@@ -5002,15 +5010,15 @@
         <v>2102</v>
       </c>
       <c r="M21" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2102&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2102&lt;/Border&gt;</v>
       </c>
       <c r="N21" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2102&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1">
       <c r="A22">
         <v>2105</v>
       </c>
@@ -5046,15 +5054,15 @@
         <v>2105</v>
       </c>
       <c r="M22" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2105&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2105&lt;/Border&gt;</v>
       </c>
       <c r="N22" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2105&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1">
       <c r="A23">
         <v>2108</v>
       </c>
@@ -5090,15 +5098,15 @@
         <v>2108</v>
       </c>
       <c r="M23" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2108&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2108&lt;/Border&gt;</v>
       </c>
       <c r="N23" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2108&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1">
       <c r="A24">
         <v>2202</v>
       </c>
@@ -5134,15 +5142,15 @@
         <v>2202</v>
       </c>
       <c r="M24" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2202&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2202&lt;/Border&gt;</v>
       </c>
       <c r="N24" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2202&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1">
       <c r="A25">
         <v>2203</v>
       </c>
@@ -5178,15 +5186,15 @@
         <v>2203</v>
       </c>
       <c r="M25" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2203&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2203&lt;/Border&gt;</v>
       </c>
       <c r="N25" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2203&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" hidden="1">
       <c r="A26">
         <v>2204</v>
       </c>
@@ -5222,15 +5230,15 @@
         <v>2204</v>
       </c>
       <c r="M26" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2204&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2204&lt;/Border&gt;</v>
       </c>
       <c r="N26" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2204&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1">
       <c r="A27">
         <v>2304</v>
       </c>
@@ -5266,15 +5274,15 @@
         <v>2304</v>
       </c>
       <c r="M27" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2304&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2304&lt;/Border&gt;</v>
       </c>
       <c r="N27" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2304&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28">
         <v>2306</v>
       </c>
@@ -5310,15 +5318,15 @@
         <v>2306</v>
       </c>
       <c r="M28" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2306&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2306&lt;/Border&gt;</v>
       </c>
       <c r="N28" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2306&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" hidden="1">
       <c r="A29">
         <v>2309</v>
       </c>
@@ -5354,15 +5362,15 @@
         <v>2309</v>
       </c>
       <c r="M29" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2309&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2309&lt;/Border&gt;</v>
       </c>
       <c r="N29" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2309&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1">
       <c r="A30">
         <v>2402</v>
       </c>
@@ -5398,15 +5406,15 @@
         <v>2402</v>
       </c>
       <c r="M30" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2402&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2402&lt;/Border&gt;</v>
       </c>
       <c r="N30" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2402&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" hidden="1">
       <c r="A31">
         <v>2405</v>
       </c>
@@ -5442,15 +5450,15 @@
         <v>2405</v>
       </c>
       <c r="M31" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2405&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2405&lt;/Border&gt;</v>
       </c>
       <c r="N31" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2405&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1">
       <c r="A32">
         <v>2501</v>
       </c>
@@ -5486,15 +5494,15 @@
         <v>2501</v>
       </c>
       <c r="M32" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2501&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2501&lt;/Border&gt;</v>
       </c>
       <c r="N32" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2501&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1">
       <c r="A33">
         <v>2602</v>
       </c>
@@ -5530,15 +5538,15 @@
         <v>2602</v>
       </c>
       <c r="M33" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2602&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2602&lt;/Border&gt;</v>
       </c>
       <c r="N33" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2602&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1">
       <c r="A34">
         <v>2704</v>
       </c>
@@ -5574,15 +5582,15 @@
         <v>2704</v>
       </c>
       <c r="M34" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2704&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2704&lt;/Border&gt;</v>
       </c>
       <c r="N34" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2704&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" hidden="1">
       <c r="A35">
         <v>2708</v>
       </c>
@@ -5618,15 +5626,15 @@
         <v>2708</v>
       </c>
       <c r="M35" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2708&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2708&lt;/Border&gt;</v>
       </c>
       <c r="N35" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2708&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1">
       <c r="A36">
         <v>2709</v>
       </c>
@@ -5662,15 +5670,15 @@
         <v>2709</v>
       </c>
       <c r="M36" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2709&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2709&lt;/Border&gt;</v>
       </c>
       <c r="N36" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2709&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1">
       <c r="A37">
         <v>2801</v>
       </c>
@@ -5706,15 +5714,15 @@
         <v>2801</v>
       </c>
       <c r="M37" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2801&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2801&lt;/Border&gt;</v>
       </c>
       <c r="N37" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2801&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1">
       <c r="A38">
         <v>2804</v>
       </c>
@@ -5750,15 +5758,15 @@
         <v>2804</v>
       </c>
       <c r="M38" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2804&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2804&lt;/Border&gt;</v>
       </c>
       <c r="N38" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2804&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1">
       <c r="A39">
         <v>2805</v>
       </c>
@@ -5794,15 +5802,15 @@
         <v>2805</v>
       </c>
       <c r="M39" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2805&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2805&lt;/Border&gt;</v>
       </c>
       <c r="N39" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2805&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1">
       <c r="A40">
         <v>2807</v>
       </c>
@@ -5838,15 +5846,15 @@
         <v>2807</v>
       </c>
       <c r="M40" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2807&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2807&lt;/Border&gt;</v>
       </c>
       <c r="N40" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2807&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1">
       <c r="A41">
         <v>2902</v>
       </c>
@@ -5882,15 +5890,15 @@
         <v>2902</v>
       </c>
       <c r="M41" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2902&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2902&lt;/Border&gt;</v>
       </c>
       <c r="N41" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2902&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1">
       <c r="A42">
         <v>2904</v>
       </c>
@@ -5926,15 +5934,15 @@
         <v>2904</v>
       </c>
       <c r="M42" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2904&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2904&lt;/Border&gt;</v>
       </c>
       <c r="N42" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2904&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" hidden="1">
       <c r="A43">
         <v>2909</v>
       </c>
@@ -5970,15 +5978,15 @@
         <v>2909</v>
       </c>
       <c r="M43" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2909&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2909&lt;/Border&gt;</v>
       </c>
       <c r="N43" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2909&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1">
       <c r="A44">
         <v>2910</v>
       </c>
@@ -6014,15 +6022,15 @@
         <v>2910</v>
       </c>
       <c r="M44" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2910&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2910&lt;/Border&gt;</v>
       </c>
       <c r="N44" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2910&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" hidden="1">
       <c r="A45">
         <v>3003</v>
       </c>
@@ -6058,15 +6066,15 @@
         <v>3003</v>
       </c>
       <c r="M45" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3003&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;3003&lt;/Border&gt;</v>
       </c>
       <c r="N45" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;3003&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" hidden="1">
       <c r="A46">
         <v>3105</v>
       </c>
@@ -6102,15 +6110,15 @@
         <v>3105</v>
       </c>
       <c r="M46" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3105&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;3105&lt;/Border&gt;</v>
       </c>
       <c r="N46" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;3105&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" hidden="1">
       <c r="A47">
         <v>3107</v>
       </c>
@@ -6146,15 +6154,15 @@
         <v>3107</v>
       </c>
       <c r="M47" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3107&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;3107&lt;/Border&gt;</v>
       </c>
       <c r="N47" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;3107&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" hidden="1">
       <c r="A48">
         <v>116</v>
       </c>
@@ -6190,15 +6198,15 @@
         <v>0116</v>
       </c>
       <c r="M48" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0116&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0116&lt;/Border&gt;</v>
       </c>
       <c r="N48" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0116&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" hidden="1">
       <c r="A49">
         <v>119</v>
       </c>
@@ -6234,15 +6242,15 @@
         <v>0119</v>
       </c>
       <c r="M49" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0119&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0119&lt;/Border&gt;</v>
       </c>
       <c r="N49" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0119&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" hidden="1">
       <c r="A50">
         <v>213</v>
       </c>
@@ -6278,15 +6286,15 @@
         <v>0213</v>
       </c>
       <c r="M50" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0213&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0213&lt;/Border&gt;</v>
       </c>
       <c r="N50" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0213&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" hidden="1">
       <c r="A51">
         <v>218</v>
       </c>
@@ -6322,15 +6330,15 @@
         <v>0218</v>
       </c>
       <c r="M51" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0218&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0218&lt;/Border&gt;</v>
       </c>
       <c r="N51" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0218&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" hidden="1">
       <c r="A52">
         <v>220</v>
       </c>
@@ -6366,15 +6374,15 @@
         <v>0220</v>
       </c>
       <c r="M52" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0220&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0220&lt;/Border&gt;</v>
       </c>
       <c r="N52" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0220&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" hidden="1">
       <c r="A53">
         <v>317</v>
       </c>
@@ -6410,15 +6418,15 @@
         <v>0317</v>
       </c>
       <c r="M53" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0317&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0317&lt;/Border&gt;</v>
       </c>
       <c r="N53" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0317&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" hidden="1">
       <c r="A54">
         <v>318</v>
       </c>
@@ -6454,15 +6462,15 @@
         <v>0318</v>
       </c>
       <c r="M54" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0318&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0318&lt;/Border&gt;</v>
       </c>
       <c r="N54" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0318&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" hidden="1">
       <c r="A55">
         <v>319</v>
       </c>
@@ -6498,15 +6506,15 @@
         <v>0319</v>
       </c>
       <c r="M55" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0319&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0319&lt;/Border&gt;</v>
       </c>
       <c r="N55" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0319&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" hidden="1">
       <c r="A56">
         <v>320</v>
       </c>
@@ -6542,15 +6550,15 @@
         <v>0320</v>
       </c>
       <c r="M56" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0320&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0320&lt;/Border&gt;</v>
       </c>
       <c r="N56" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0320&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" hidden="1">
       <c r="A57">
         <v>415</v>
       </c>
@@ -6586,15 +6594,15 @@
         <v>0415</v>
       </c>
       <c r="M57" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0415&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0415&lt;/Border&gt;</v>
       </c>
       <c r="N57" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0415&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" hidden="1">
       <c r="A58">
         <v>416</v>
       </c>
@@ -6630,15 +6638,15 @@
         <v>0416</v>
       </c>
       <c r="M58" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0416&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0416&lt;/Border&gt;</v>
       </c>
       <c r="N58" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0416&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" hidden="1">
       <c r="A59">
         <v>417</v>
       </c>
@@ -6674,15 +6682,15 @@
         <v>0417</v>
       </c>
       <c r="M59" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0417&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0417&lt;/Border&gt;</v>
       </c>
       <c r="N59" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0417&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" hidden="1">
       <c r="A60">
         <v>418</v>
       </c>
@@ -6718,15 +6726,15 @@
         <v>0418</v>
       </c>
       <c r="M60" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0418&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0418&lt;/Border&gt;</v>
       </c>
       <c r="N60" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0418&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" hidden="1">
       <c r="A61">
         <v>516</v>
       </c>
@@ -6762,15 +6770,15 @@
         <v>0516</v>
       </c>
       <c r="M61" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0516&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0516&lt;/Border&gt;</v>
       </c>
       <c r="N61" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0516&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" hidden="1">
       <c r="A62">
         <v>614</v>
       </c>
@@ -6806,15 +6814,15 @@
         <v>0614</v>
       </c>
       <c r="M62" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0614&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0614&lt;/Border&gt;</v>
       </c>
       <c r="N62" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0614&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" hidden="1">
       <c r="A63">
         <v>616</v>
       </c>
@@ -6850,15 +6858,15 @@
         <v>0616</v>
       </c>
       <c r="M63" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0616&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0616&lt;/Border&gt;</v>
       </c>
       <c r="N63" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0616&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" hidden="1">
       <c r="A64">
         <v>713</v>
       </c>
@@ -6894,15 +6902,15 @@
         <v>0713</v>
       </c>
       <c r="M64" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0713&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0713&lt;/Border&gt;</v>
       </c>
       <c r="N64" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0713&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" hidden="1">
       <c r="A65">
         <v>716</v>
       </c>
@@ -6938,15 +6946,15 @@
         <v>0716</v>
       </c>
       <c r="M65" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0716&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0716&lt;/Border&gt;</v>
       </c>
       <c r="N65" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0716&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" hidden="1">
       <c r="A66">
         <v>815</v>
       </c>
@@ -6982,15 +6990,15 @@
         <v>0815</v>
       </c>
       <c r="M66" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0815&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;0815&lt;/Border&gt;</v>
       </c>
       <c r="N66" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;0815&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" hidden="1">
       <c r="A67">
         <v>915</v>
       </c>
@@ -7026,15 +7034,15 @@
         <v>0915</v>
       </c>
       <c r="M67" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0915&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0915&lt;/Border&gt;</v>
       </c>
       <c r="N67" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0915&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" hidden="1">
       <c r="A68">
         <v>1114</v>
       </c>
@@ -7070,15 +7078,15 @@
         <v>1114</v>
       </c>
       <c r="M68" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1114&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;1114&lt;/Border&gt;</v>
       </c>
       <c r="N68" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;1114&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" hidden="1">
       <c r="A69">
         <v>1118</v>
       </c>
@@ -7114,15 +7122,15 @@
         <v>1118</v>
       </c>
       <c r="M69" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1118&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1118&lt;/Border&gt;</v>
       </c>
       <c r="N69" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1118&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" hidden="1">
       <c r="A70">
         <v>2211</v>
       </c>
@@ -7158,15 +7166,15 @@
         <v>2211</v>
       </c>
       <c r="M70" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2211&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2211&lt;/Border&gt;</v>
       </c>
       <c r="N70" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2211&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" hidden="1">
       <c r="A71">
         <v>2213</v>
       </c>
@@ -7202,15 +7210,15 @@
         <v>2213</v>
       </c>
       <c r="M71" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2213&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2213&lt;/Border&gt;</v>
       </c>
       <c r="N71" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2213&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" hidden="1">
       <c r="A72">
         <v>2411</v>
       </c>
@@ -7246,15 +7254,15 @@
         <v>2411</v>
       </c>
       <c r="M72" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2411&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2411&lt;/Border&gt;</v>
       </c>
       <c r="N72" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2411&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" hidden="1">
       <c r="A73">
         <v>2513</v>
       </c>
@@ -7290,15 +7298,15 @@
         <v>2513</v>
       </c>
       <c r="M73" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2513&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2513&lt;/Border&gt;</v>
       </c>
       <c r="N73" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2513&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" hidden="1">
       <c r="A74">
         <v>2515</v>
       </c>
@@ -7334,15 +7342,15 @@
         <v>2515</v>
       </c>
       <c r="M74" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2515&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2515&lt;/Border&gt;</v>
       </c>
       <c r="N74" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2515&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" hidden="1">
       <c r="A75">
         <v>2612</v>
       </c>
@@ -7378,15 +7386,15 @@
         <v>2612</v>
       </c>
       <c r="M75" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2612&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2612&lt;/Border&gt;</v>
       </c>
       <c r="N75" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2612&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" hidden="1">
       <c r="A76">
         <v>2614</v>
       </c>
@@ -7422,15 +7430,15 @@
         <v>2614</v>
       </c>
       <c r="M76" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2614&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2614&lt;/Border&gt;</v>
       </c>
       <c r="N76" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2614&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" hidden="1">
       <c r="A77">
         <v>2616</v>
       </c>
@@ -7465,16 +7473,16 @@
         <f>TEXT(Table1[[#This Row],[Column1]],"0000")</f>
         <v>2616</v>
       </c>
-      <c r="M77" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2616&lt;/Border&gt;</v>
-      </c>
-      <c r="N77" s="4" t="str">
-        <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="M77" t="e">
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N77" s="4" t="e">
+        <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" hidden="1">
       <c r="A78">
         <v>2711</v>
       </c>
@@ -7510,15 +7518,15 @@
         <v>2711</v>
       </c>
       <c r="M78" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2711&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2711&lt;/Border&gt;</v>
       </c>
       <c r="N78" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2711&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" hidden="1">
       <c r="A79">
         <v>2714</v>
       </c>
@@ -7554,15 +7562,15 @@
         <v>2714</v>
       </c>
       <c r="M79" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2714&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2714&lt;/Border&gt;</v>
       </c>
       <c r="N79" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2714&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" hidden="1">
       <c r="A80">
         <v>2715</v>
       </c>
@@ -7598,15 +7606,15 @@
         <v>2715</v>
       </c>
       <c r="M80" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2715&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2715&lt;/Border&gt;</v>
       </c>
       <c r="N80" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2715&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" hidden="1">
       <c r="A81">
         <v>2813</v>
       </c>
@@ -7642,15 +7650,15 @@
         <v>2813</v>
       </c>
       <c r="M81" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2813&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2813&lt;/Border&gt;</v>
       </c>
       <c r="N81" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2813&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" hidden="1">
       <c r="A82">
         <v>2814</v>
       </c>
@@ -7686,15 +7694,15 @@
         <v>2814</v>
       </c>
       <c r="M82" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2814&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2814&lt;/Border&gt;</v>
       </c>
       <c r="N82" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2814&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" hidden="1">
       <c r="A83">
         <v>2815</v>
       </c>
@@ -7730,15 +7738,15 @@
         <v>2815</v>
       </c>
       <c r="M83" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2815&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2815&lt;/Border&gt;</v>
       </c>
       <c r="N83" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2815&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" hidden="1">
       <c r="A84">
         <v>2912</v>
       </c>
@@ -7774,15 +7782,15 @@
         <v>2912</v>
       </c>
       <c r="M84" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2912&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2912&lt;/Border&gt;</v>
       </c>
       <c r="N84" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2912&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" hidden="1">
       <c r="A85">
         <v>2915</v>
       </c>
@@ -7818,15 +7826,15 @@
         <v>2915</v>
       </c>
       <c r="M85" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2915&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2915&lt;/Border&gt;</v>
       </c>
       <c r="N85" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2915&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" hidden="1">
       <c r="A86">
         <v>2916</v>
       </c>
@@ -7862,15 +7870,15 @@
         <v>2916</v>
       </c>
       <c r="M86" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2916&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2916&lt;/Border&gt;</v>
       </c>
       <c r="N86" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2916&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" hidden="1">
       <c r="A87">
         <v>2918</v>
       </c>
@@ -7906,15 +7914,15 @@
         <v>2918</v>
       </c>
       <c r="M87" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2918&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2918&lt;/Border&gt;</v>
       </c>
       <c r="N87" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2918&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" hidden="1">
       <c r="A88">
         <v>3011</v>
       </c>
@@ -7950,15 +7958,15 @@
         <v>3011</v>
       </c>
       <c r="M88" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3011&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;3011&lt;/Border&gt;</v>
       </c>
       <c r="N88" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;3011&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" hidden="1">
       <c r="A89">
         <v>3012</v>
       </c>
@@ -7994,15 +8002,15 @@
         <v>3012</v>
       </c>
       <c r="M89" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3012&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;3012&lt;/Border&gt;</v>
       </c>
       <c r="N89" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;3012&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" hidden="1">
       <c r="A90">
         <v>3013</v>
       </c>
@@ -8038,15 +8046,15 @@
         <v>3013</v>
       </c>
       <c r="M90" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3013&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;3013&lt;/Border&gt;</v>
       </c>
       <c r="N90" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;3013&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" hidden="1">
       <c r="A91">
         <v>3015</v>
       </c>
@@ -8082,15 +8090,15 @@
         <v>3015</v>
       </c>
       <c r="M91" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3015&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;3015&lt;/Border&gt;</v>
       </c>
       <c r="N91" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;3015&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" hidden="1">
       <c r="A92">
         <v>3016</v>
       </c>
@@ -8126,15 +8134,15 @@
         <v>3016</v>
       </c>
       <c r="M92" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3016&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;3016&lt;/Border&gt;</v>
       </c>
       <c r="N92" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;3016&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" hidden="1">
       <c r="A93">
         <v>3111</v>
       </c>
@@ -8170,15 +8178,15 @@
         <v>3111</v>
       </c>
       <c r="M93" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3111&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;3111&lt;/Border&gt;</v>
       </c>
       <c r="N93" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;3111&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" hidden="1">
       <c r="A94">
         <v>3113</v>
       </c>
@@ -8214,15 +8222,15 @@
         <v>3113</v>
       </c>
       <c r="M94" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3113&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;3113&lt;/Border&gt;</v>
       </c>
       <c r="N94" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;3113&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" hidden="1">
       <c r="A95">
         <v>3116</v>
       </c>
@@ -8258,15 +8266,15 @@
         <v>3116</v>
       </c>
       <c r="M95" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3116&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;3116&lt;/Border&gt;</v>
       </c>
       <c r="N95" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;3116&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" hidden="1">
       <c r="A96">
         <v>3117</v>
       </c>
@@ -8302,15 +8310,15 @@
         <v>3117</v>
       </c>
       <c r="M96" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3117&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;3117&lt;/Border&gt;</v>
       </c>
       <c r="N96" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;3117&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" hidden="1">
       <c r="A97">
         <v>3119</v>
       </c>
@@ -8346,15 +8354,15 @@
         <v>3119</v>
       </c>
       <c r="M97" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3119&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;3119&lt;/Border&gt;</v>
       </c>
       <c r="N97" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;3119&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" hidden="1">
       <c r="A98">
         <v>3212</v>
       </c>
@@ -8390,15 +8398,15 @@
         <v>3212</v>
       </c>
       <c r="M98" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3212&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;3212&lt;/Border&gt;</v>
       </c>
       <c r="N98" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;3212&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" hidden="1">
       <c r="A99">
         <v>3213</v>
       </c>
@@ -8434,15 +8442,15 @@
         <v>3213</v>
       </c>
       <c r="M99" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3213&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;3213&lt;/Border&gt;</v>
       </c>
       <c r="N99" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;3213&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" hidden="1">
       <c r="A100">
         <v>3215</v>
       </c>
@@ -8478,15 +8486,15 @@
         <v>3215</v>
       </c>
       <c r="M100" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3215&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;3215&lt;/Border&gt;</v>
       </c>
       <c r="N100" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;3215&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" hidden="1">
       <c r="A101">
         <v>3219</v>
       </c>
@@ -8522,15 +8530,15 @@
         <v>3219</v>
       </c>
       <c r="M101" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;3219&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;3219&lt;/Border&gt;</v>
       </c>
       <c r="N101" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;3219&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" hidden="1">
       <c r="A102">
         <v>122</v>
       </c>
@@ -8566,15 +8574,15 @@
         <v>0122</v>
       </c>
       <c r="M102" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0122&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0122&lt;/Border&gt;</v>
       </c>
       <c r="N102" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0122&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" hidden="1">
       <c r="A103">
         <v>126</v>
       </c>
@@ -8610,15 +8618,15 @@
         <v>0126</v>
       </c>
       <c r="M103" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0126&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0126&lt;/Border&gt;</v>
       </c>
       <c r="N103" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0126&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" hidden="1">
       <c r="A104">
         <v>127</v>
       </c>
@@ -8654,15 +8662,15 @@
         <v>0127</v>
       </c>
       <c r="M104" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0127&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0127&lt;/Border&gt;</v>
       </c>
       <c r="N104" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0127&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" hidden="1">
       <c r="A105">
         <v>129</v>
       </c>
@@ -8698,15 +8706,15 @@
         <v>0129</v>
       </c>
       <c r="M105" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0129&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0129&lt;/Border&gt;</v>
       </c>
       <c r="N105" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0129&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" hidden="1">
       <c r="A106">
         <v>130</v>
       </c>
@@ -8742,15 +8750,15 @@
         <v>0130</v>
       </c>
       <c r="M106" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0130&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0130&lt;/Border&gt;</v>
       </c>
       <c r="N106" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0130&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" hidden="1">
       <c r="A107">
         <v>222</v>
       </c>
@@ -8786,15 +8794,15 @@
         <v>0222</v>
       </c>
       <c r="M107" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0222&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0222&lt;/Border&gt;</v>
       </c>
       <c r="N107" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0222&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" hidden="1">
       <c r="A108">
         <v>223</v>
       </c>
@@ -8830,15 +8838,15 @@
         <v>0223</v>
       </c>
       <c r="M108" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0223&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0223&lt;/Border&gt;</v>
       </c>
       <c r="N108" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0223&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" hidden="1">
       <c r="A109">
         <v>224</v>
       </c>
@@ -8874,15 +8882,15 @@
         <v>0224</v>
       </c>
       <c r="M109" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0224&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0224&lt;/Border&gt;</v>
       </c>
       <c r="N109" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0224&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" hidden="1">
       <c r="A110">
         <v>227</v>
       </c>
@@ -8918,15 +8926,15 @@
         <v>0227</v>
       </c>
       <c r="M110" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0227&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0227&lt;/Border&gt;</v>
       </c>
       <c r="N110" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0227&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" hidden="1">
       <c r="A111">
         <v>229</v>
       </c>
@@ -8962,15 +8970,15 @@
         <v>0229</v>
       </c>
       <c r="M111" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0229&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0229&lt;/Border&gt;</v>
       </c>
       <c r="N111" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0229&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" hidden="1">
       <c r="A112">
         <v>321</v>
       </c>
@@ -9006,15 +9014,15 @@
         <v>0321</v>
       </c>
       <c r="M112" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0321&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0321&lt;/Border&gt;</v>
       </c>
       <c r="N112" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0321&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" hidden="1">
       <c r="A113">
         <v>322</v>
       </c>
@@ -9050,15 +9058,15 @@
         <v>0322</v>
       </c>
       <c r="M113" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0322&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0322&lt;/Border&gt;</v>
       </c>
       <c r="N113" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0322&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" hidden="1">
       <c r="A114">
         <v>328</v>
       </c>
@@ -9094,15 +9102,15 @@
         <v>0328</v>
       </c>
       <c r="M114" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0328&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0328&lt;/Border&gt;</v>
       </c>
       <c r="N114" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0328&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" hidden="1">
       <c r="A115">
         <v>329</v>
       </c>
@@ -9138,15 +9146,15 @@
         <v>0329</v>
       </c>
       <c r="M115" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0329&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0329&lt;/Border&gt;</v>
       </c>
       <c r="N115" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0329&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" hidden="1">
       <c r="A116">
         <v>425</v>
       </c>
@@ -9182,15 +9190,15 @@
         <v>0425</v>
       </c>
       <c r="M116" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0425&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0425&lt;/Border&gt;</v>
       </c>
       <c r="N116" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0425&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" hidden="1">
       <c r="A117">
         <v>426</v>
       </c>
@@ -9226,15 +9234,15 @@
         <v>0426</v>
       </c>
       <c r="M117" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0426&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0426&lt;/Border&gt;</v>
       </c>
       <c r="N117" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0426&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" hidden="1">
       <c r="A118">
         <v>429</v>
       </c>
@@ -9270,15 +9278,15 @@
         <v>0429</v>
       </c>
       <c r="M118" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0429&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0429&lt;/Border&gt;</v>
       </c>
       <c r="N118" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0429&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" hidden="1">
       <c r="A119">
         <v>430</v>
       </c>
@@ -9314,15 +9322,15 @@
         <v>0430</v>
       </c>
       <c r="M119" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0430&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0430&lt;/Border&gt;</v>
       </c>
       <c r="N119" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0430&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" hidden="1">
       <c r="A120">
         <v>523</v>
       </c>
@@ -9358,15 +9366,15 @@
         <v>0523</v>
       </c>
       <c r="M120" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0523&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0523&lt;/Border&gt;</v>
       </c>
       <c r="N120" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0523&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" hidden="1">
       <c r="A121">
         <v>525</v>
       </c>
@@ -9402,15 +9410,15 @@
         <v>0525</v>
       </c>
       <c r="M121" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0525&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0525&lt;/Border&gt;</v>
       </c>
       <c r="N121" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0525&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" hidden="1">
       <c r="A122">
         <v>528</v>
       </c>
@@ -9446,15 +9454,15 @@
         <v>0528</v>
       </c>
       <c r="M122" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0528&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0528&lt;/Border&gt;</v>
       </c>
       <c r="N122" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0528&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" hidden="1">
       <c r="A123">
         <v>529</v>
       </c>
@@ -9490,15 +9498,15 @@
         <v>0529</v>
       </c>
       <c r="M123" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0529&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0529&lt;/Border&gt;</v>
       </c>
       <c r="N123" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0529&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" hidden="1">
       <c r="A124">
         <v>530</v>
       </c>
@@ -9534,15 +9542,15 @@
         <v>0530</v>
       </c>
       <c r="M124" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0530&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0530&lt;/Border&gt;</v>
       </c>
       <c r="N124" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0530&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" hidden="1">
       <c r="A125">
         <v>628</v>
       </c>
@@ -9578,15 +9586,15 @@
         <v>0628</v>
       </c>
       <c r="M125" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0628&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0628&lt;/Border&gt;</v>
       </c>
       <c r="N125" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0628&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" hidden="1">
       <c r="A126">
         <v>722</v>
       </c>
@@ -9622,15 +9630,15 @@
         <v>0722</v>
       </c>
       <c r="M126" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0722&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0722&lt;/Border&gt;</v>
       </c>
       <c r="N126" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0722&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" hidden="1">
       <c r="A127">
         <v>724</v>
       </c>
@@ -9666,15 +9674,15 @@
         <v>0724</v>
       </c>
       <c r="M127" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0724&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0724&lt;/Border&gt;</v>
       </c>
       <c r="N127" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0724&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" hidden="1">
       <c r="A128">
         <v>727</v>
       </c>
@@ -9710,15 +9718,15 @@
         <v>0727</v>
       </c>
       <c r="M128" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0727&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0727&lt;/Border&gt;</v>
       </c>
       <c r="N128" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0727&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" hidden="1">
       <c r="A129">
         <v>729</v>
       </c>
@@ -9754,15 +9762,15 @@
         <v>0729</v>
       </c>
       <c r="M129" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0729&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0729&lt;/Border&gt;</v>
       </c>
       <c r="N129" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0729&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" hidden="1">
       <c r="A130">
         <v>823</v>
       </c>
@@ -9798,15 +9806,15 @@
         <v>0823</v>
       </c>
       <c r="M130" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0823&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0823&lt;/Border&gt;</v>
       </c>
       <c r="N130" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0823&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" hidden="1">
       <c r="A131">
         <v>824</v>
       </c>
@@ -9842,15 +9850,15 @@
         <v>0824</v>
       </c>
       <c r="M131" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0824&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0824&lt;/Border&gt;</v>
       </c>
       <c r="N131" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0824&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" hidden="1">
       <c r="A132">
         <v>825</v>
       </c>
@@ -9886,15 +9894,15 @@
         <v>0825</v>
       </c>
       <c r="M132" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0825&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0825&lt;/Border&gt;</v>
       </c>
       <c r="N132" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0825&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" hidden="1">
       <c r="A133">
         <v>829</v>
       </c>
@@ -9930,15 +9938,15 @@
         <v>0829</v>
       </c>
       <c r="M133" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0829&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0829&lt;/Border&gt;</v>
       </c>
       <c r="N133" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0829&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" hidden="1">
       <c r="A134">
         <v>929</v>
       </c>
@@ -9974,15 +9982,15 @@
         <v>0929</v>
       </c>
       <c r="M134" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0929&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0929&lt;/Border&gt;</v>
       </c>
       <c r="N134" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0929&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" hidden="1">
       <c r="A135">
         <v>930</v>
       </c>
@@ -10018,15 +10026,15 @@
         <v>0930</v>
       </c>
       <c r="M135" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0930&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0930&lt;/Border&gt;</v>
       </c>
       <c r="N135" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0930&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" hidden="1">
       <c r="A136">
         <v>1022</v>
       </c>
@@ -10062,15 +10070,15 @@
         <v>1022</v>
       </c>
       <c r="M136" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1022&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1022&lt;/Border&gt;</v>
       </c>
       <c r="N136" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1022&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" hidden="1">
       <c r="A137">
         <v>1023</v>
       </c>
@@ -10106,15 +10114,15 @@
         <v>1023</v>
       </c>
       <c r="M137" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1023&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1023&lt;/Border&gt;</v>
       </c>
       <c r="N137" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1023&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" hidden="1">
       <c r="A138">
         <v>1025</v>
       </c>
@@ -10150,15 +10158,15 @@
         <v>1025</v>
       </c>
       <c r="M138" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1025&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1025&lt;/Border&gt;</v>
       </c>
       <c r="N138" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1025&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" hidden="1">
       <c r="A139">
         <v>1026</v>
       </c>
@@ -10194,15 +10202,15 @@
         <v>1026</v>
       </c>
       <c r="M139" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1026&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;1026&lt;/Border&gt;</v>
       </c>
       <c r="N139" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;1026&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" hidden="1">
       <c r="A140">
         <v>1027</v>
       </c>
@@ -10238,15 +10246,15 @@
         <v>1027</v>
       </c>
       <c r="M140" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1027&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;1027&lt;/Border&gt;</v>
       </c>
       <c r="N140" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;1027&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" hidden="1">
       <c r="A141">
         <v>1028</v>
       </c>
@@ -10282,15 +10290,15 @@
         <v>1028</v>
       </c>
       <c r="M141" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1028&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1028&lt;/Border&gt;</v>
       </c>
       <c r="N141" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1028&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" hidden="1">
       <c r="A142">
         <v>1030</v>
       </c>
@@ -10326,15 +10334,15 @@
         <v>1030</v>
       </c>
       <c r="M142" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1030&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1030&lt;/Border&gt;</v>
       </c>
       <c r="N142" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1030&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" hidden="1">
       <c r="A143">
         <v>1121</v>
       </c>
@@ -10370,15 +10378,15 @@
         <v>1121</v>
       </c>
       <c r="M143" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1121&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1121&lt;/Border&gt;</v>
       </c>
       <c r="N143" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1121&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" hidden="1">
       <c r="A144">
         <v>1124</v>
       </c>
@@ -10414,15 +10422,15 @@
         <v>1124</v>
       </c>
       <c r="M144" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1124&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1124&lt;/Border&gt;</v>
       </c>
       <c r="N144" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1124&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" hidden="1">
       <c r="A145">
         <v>1126</v>
       </c>
@@ -10458,15 +10466,15 @@
         <v>1126</v>
       </c>
       <c r="M145" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1126&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1126&lt;/Border&gt;</v>
       </c>
       <c r="N145" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1126&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" hidden="1">
       <c r="A146">
         <v>1128</v>
       </c>
@@ -10502,15 +10510,15 @@
         <v>1128</v>
       </c>
       <c r="M146" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1128&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;1128&lt;/Border&gt;</v>
       </c>
       <c r="N146" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;1128&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" hidden="1">
       <c r="A147">
         <v>1223</v>
       </c>
@@ -10546,15 +10554,15 @@
         <v>1223</v>
       </c>
       <c r="M147" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1223&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1223&lt;/Border&gt;</v>
       </c>
       <c r="N147" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1223&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" hidden="1">
       <c r="A148">
         <v>1226</v>
       </c>
@@ -10590,15 +10598,15 @@
         <v>1226</v>
       </c>
       <c r="M148" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1226&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1226&lt;/Border&gt;</v>
       </c>
       <c r="N148" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1226&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" hidden="1">
       <c r="A149">
         <v>1230</v>
       </c>
@@ -10634,15 +10642,15 @@
         <v>1230</v>
       </c>
       <c r="M149" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1230&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1230&lt;/Border&gt;</v>
       </c>
       <c r="N149" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1230&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" hidden="1">
       <c r="A150">
         <v>1322</v>
       </c>
@@ -10678,15 +10686,15 @@
         <v>1322</v>
       </c>
       <c r="M150" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1322&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;1322&lt;/Border&gt;</v>
       </c>
       <c r="N150" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;1322&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" hidden="1">
       <c r="A151">
         <v>1323</v>
       </c>
@@ -10722,15 +10730,15 @@
         <v>1323</v>
       </c>
       <c r="M151" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1323&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1323&lt;/Border&gt;</v>
       </c>
       <c r="N151" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1323&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" hidden="1">
       <c r="A152">
         <v>1324</v>
       </c>
@@ -10766,15 +10774,15 @@
         <v>1324</v>
       </c>
       <c r="M152" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1324&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1324&lt;/Border&gt;</v>
       </c>
       <c r="N152" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1324&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" hidden="1">
       <c r="A153">
         <v>1426</v>
       </c>
@@ -10810,15 +10818,15 @@
         <v>1426</v>
       </c>
       <c r="M153" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1426&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1426&lt;/Border&gt;</v>
       </c>
       <c r="N153" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1426&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" hidden="1">
       <c r="A154">
         <v>1429</v>
       </c>
@@ -10854,15 +10862,15 @@
         <v>1429</v>
       </c>
       <c r="M154" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1429&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1429&lt;/Border&gt;</v>
       </c>
       <c r="N154" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1429&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" hidden="1">
       <c r="A155">
         <v>1524</v>
       </c>
@@ -10898,15 +10906,15 @@
         <v>1524</v>
       </c>
       <c r="M155" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1524&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1524&lt;/Border&gt;</v>
       </c>
       <c r="N155" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1524&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" hidden="1">
       <c r="A156">
         <v>1530</v>
       </c>
@@ -10942,15 +10950,15 @@
         <v>1530</v>
       </c>
       <c r="M156" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1530&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;1530&lt;/Border&gt;</v>
       </c>
       <c r="N156" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;1530&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" hidden="1">
       <c r="A157">
         <v>1621</v>
       </c>
@@ -10986,15 +10994,15 @@
         <v>1621</v>
       </c>
       <c r="M157" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1621&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1621&lt;/Border&gt;</v>
       </c>
       <c r="N157" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1621&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" hidden="1">
       <c r="A158">
         <v>1626</v>
       </c>
@@ -11030,15 +11038,15 @@
         <v>1626</v>
       </c>
       <c r="M158" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1626&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1626&lt;/Border&gt;</v>
       </c>
       <c r="N158" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1626&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" hidden="1">
       <c r="A159">
         <v>1630</v>
       </c>
@@ -11074,15 +11082,15 @@
         <v>1630</v>
       </c>
       <c r="M159" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1630&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1630&lt;/Border&gt;</v>
       </c>
       <c r="N159" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1630&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" hidden="1">
       <c r="A160">
         <v>1723</v>
       </c>
@@ -11118,15 +11126,15 @@
         <v>1723</v>
       </c>
       <c r="M160" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1723&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1723&lt;/Border&gt;</v>
       </c>
       <c r="N160" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1723&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" hidden="1">
       <c r="A161">
         <v>1728</v>
       </c>
@@ -11162,15 +11170,15 @@
         <v>1728</v>
       </c>
       <c r="M161" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1728&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1728&lt;/Border&gt;</v>
       </c>
       <c r="N161" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1728&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" hidden="1">
       <c r="A162">
         <v>1823</v>
       </c>
@@ -11206,15 +11214,15 @@
         <v>1823</v>
       </c>
       <c r="M162" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1823&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1823&lt;/Border&gt;</v>
       </c>
       <c r="N162" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1823&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" hidden="1">
       <c r="A163">
         <v>1830</v>
       </c>
@@ -11250,15 +11258,15 @@
         <v>1830</v>
       </c>
       <c r="M163" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1830&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1830&lt;/Border&gt;</v>
       </c>
       <c r="N163" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1830&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" hidden="1">
       <c r="A164">
         <v>1927</v>
       </c>
@@ -11294,15 +11302,15 @@
         <v>1927</v>
       </c>
       <c r="M164" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1927&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1927&lt;/Border&gt;</v>
       </c>
       <c r="N164" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1927&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" hidden="1">
       <c r="A165">
         <v>1928</v>
       </c>
@@ -11338,15 +11346,15 @@
         <v>1928</v>
       </c>
       <c r="M165" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1928&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1928&lt;/Border&gt;</v>
       </c>
       <c r="N165" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1928&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" hidden="1">
       <c r="A166">
         <v>2023</v>
       </c>
@@ -11382,15 +11390,15 @@
         <v>2023</v>
       </c>
       <c r="M166" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2023&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2023&lt;/Border&gt;</v>
       </c>
       <c r="N166" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2023&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" hidden="1">
       <c r="A167">
         <v>2029</v>
       </c>
@@ -11426,15 +11434,15 @@
         <v>2029</v>
       </c>
       <c r="M167" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2029&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2029&lt;/Border&gt;</v>
       </c>
       <c r="N167" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2029&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" hidden="1">
       <c r="A168">
         <v>2125</v>
       </c>
@@ -11470,15 +11478,15 @@
         <v>2125</v>
       </c>
       <c r="M168" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2125&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2125&lt;/Border&gt;</v>
       </c>
       <c r="N168" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2125&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" hidden="1">
       <c r="A169">
         <v>2226</v>
       </c>
@@ -11514,15 +11522,15 @@
         <v>2226</v>
       </c>
       <c r="M169" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2226&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2226&lt;/Border&gt;</v>
       </c>
       <c r="N169" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2226&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" hidden="1">
       <c r="A170">
         <v>2227</v>
       </c>
@@ -11558,15 +11566,15 @@
         <v>2227</v>
       </c>
       <c r="M170" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2227&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2227&lt;/Border&gt;</v>
       </c>
       <c r="N170" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2227&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" hidden="1">
       <c r="A171">
         <v>2229</v>
       </c>
@@ -11602,15 +11610,15 @@
         <v>2229</v>
       </c>
       <c r="M171" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2229&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2229&lt;/Border&gt;</v>
       </c>
       <c r="N171" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2229&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" hidden="1">
       <c r="A172">
         <v>2230</v>
       </c>
@@ -11646,15 +11654,15 @@
         <v>2230</v>
       </c>
       <c r="M172" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2230&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2230&lt;/Border&gt;</v>
       </c>
       <c r="N172" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;2230&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" hidden="1">
       <c r="A173">
         <v>2329</v>
       </c>
@@ -11690,15 +11698,15 @@
         <v>2329</v>
       </c>
       <c r="M173" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2329&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2329&lt;/Border&gt;</v>
       </c>
       <c r="N173" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2329&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" hidden="1">
       <c r="A174">
         <v>2624</v>
       </c>
@@ -11734,15 +11742,15 @@
         <v>2624</v>
       </c>
       <c r="M174" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2624&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2624&lt;/Border&gt;</v>
       </c>
       <c r="N174" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2624&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" hidden="1">
       <c r="A175">
         <v>132</v>
       </c>
@@ -11778,15 +11786,15 @@
         <v>0132</v>
       </c>
       <c r="M175" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0132&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0132&lt;/Border&gt;</v>
       </c>
       <c r="N175" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0132&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" hidden="1">
       <c r="A176">
         <v>134</v>
       </c>
@@ -11822,15 +11830,15 @@
         <v>0134</v>
       </c>
       <c r="M176" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0134&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0134&lt;/Border&gt;</v>
       </c>
       <c r="N176" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0134&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" hidden="1">
       <c r="A177">
         <v>135</v>
       </c>
@@ -11866,15 +11874,15 @@
         <v>0135</v>
       </c>
       <c r="M177" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0135&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0135&lt;/Border&gt;</v>
       </c>
       <c r="N177" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0135&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" hidden="1">
       <c r="A178">
         <v>139</v>
       </c>
@@ -11910,15 +11918,15 @@
         <v>0139</v>
       </c>
       <c r="M178" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0139&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0139&lt;/Border&gt;</v>
       </c>
       <c r="N178" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0139&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" hidden="1">
       <c r="A179">
         <v>232</v>
       </c>
@@ -11954,15 +11962,15 @@
         <v>0232</v>
       </c>
       <c r="M179" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0232&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0232&lt;/Border&gt;</v>
       </c>
       <c r="N179" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0232&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" hidden="1">
       <c r="A180">
         <v>234</v>
       </c>
@@ -11998,15 +12006,15 @@
         <v>0234</v>
       </c>
       <c r="M180" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0234&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0234&lt;/Border&gt;</v>
       </c>
       <c r="N180" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0234&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" hidden="1">
       <c r="A181">
         <v>236</v>
       </c>
@@ -12042,15 +12050,15 @@
         <v>0236</v>
       </c>
       <c r="M181" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0236&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;0236&lt;/Border&gt;</v>
       </c>
       <c r="N181" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;0236&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" hidden="1">
       <c r="A182">
         <v>240</v>
       </c>
@@ -12086,15 +12094,15 @@
         <v>0240</v>
       </c>
       <c r="M182" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0240&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0240&lt;/Border&gt;</v>
       </c>
       <c r="N182" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0240&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" hidden="1">
       <c r="A183">
         <v>332</v>
       </c>
@@ -12130,15 +12138,15 @@
         <v>0332</v>
       </c>
       <c r="M183" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0332&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0332&lt;/Border&gt;</v>
       </c>
       <c r="N183" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0332&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" hidden="1">
       <c r="A184">
         <v>335</v>
       </c>
@@ -12174,15 +12182,15 @@
         <v>0335</v>
       </c>
       <c r="M184" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0335&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0335&lt;/Border&gt;</v>
       </c>
       <c r="N184" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0335&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" hidden="1">
       <c r="A185">
         <v>336</v>
       </c>
@@ -12218,15 +12226,15 @@
         <v>0336</v>
       </c>
       <c r="M185" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0336&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0336&lt;/Border&gt;</v>
       </c>
       <c r="N185" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0336&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" hidden="1">
       <c r="A186">
         <v>338</v>
       </c>
@@ -12262,15 +12270,15 @@
         <v>0338</v>
       </c>
       <c r="M186" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0338&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0338&lt;/Border&gt;</v>
       </c>
       <c r="N186" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0338&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" hidden="1">
       <c r="A187">
         <v>431</v>
       </c>
@@ -12306,15 +12314,15 @@
         <v>0431</v>
       </c>
       <c r="M187" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0431&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0431&lt;/Border&gt;</v>
       </c>
       <c r="N187" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0431&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" hidden="1">
       <c r="A188">
         <v>531</v>
       </c>
@@ -12350,15 +12358,15 @@
         <v>0531</v>
       </c>
       <c r="M188" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0531&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0531&lt;/Border&gt;</v>
       </c>
       <c r="N188" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0531&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" hidden="1">
       <c r="A189">
         <v>534</v>
       </c>
@@ -12394,15 +12402,15 @@
         <v>0534</v>
       </c>
       <c r="M189" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0534&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0534&lt;/Border&gt;</v>
       </c>
       <c r="N189" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0534&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" hidden="1">
       <c r="A190">
         <v>536</v>
       </c>
@@ -12438,15 +12446,15 @@
         <v>0536</v>
       </c>
       <c r="M190" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0536&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0536&lt;/Border&gt;</v>
       </c>
       <c r="N190" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0536&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" hidden="1">
       <c r="A191">
         <v>633</v>
       </c>
@@ -12482,15 +12490,15 @@
         <v>0633</v>
       </c>
       <c r="M191" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0633&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0633&lt;/Border&gt;</v>
       </c>
       <c r="N191" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0633&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" hidden="1">
       <c r="A192">
         <v>640</v>
       </c>
@@ -12526,15 +12534,15 @@
         <v>0640</v>
       </c>
       <c r="M192" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0640&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0640&lt;/Border&gt;</v>
       </c>
       <c r="N192" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0640&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" hidden="1">
       <c r="A193">
         <v>738</v>
       </c>
@@ -12570,15 +12578,15 @@
         <v>0738</v>
       </c>
       <c r="M193" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0738&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0738&lt;/Border&gt;</v>
       </c>
       <c r="N193" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0738&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" hidden="1">
       <c r="A194">
         <v>739</v>
       </c>
@@ -12614,15 +12622,15 @@
         <v>0739</v>
       </c>
       <c r="M194" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0739&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0739&lt;/Border&gt;</v>
       </c>
       <c r="N194" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0739&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" hidden="1">
       <c r="A195">
         <v>835</v>
       </c>
@@ -12658,15 +12666,15 @@
         <v>0835</v>
       </c>
       <c r="M195" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0835&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0835&lt;/Border&gt;</v>
       </c>
       <c r="N195" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0835&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" hidden="1">
       <c r="A196">
         <v>837</v>
       </c>
@@ -12702,15 +12710,15 @@
         <v>0837</v>
       </c>
       <c r="M196" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0837&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0837&lt;/Border&gt;</v>
       </c>
       <c r="N196" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0837&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" hidden="1">
       <c r="A197">
         <v>839</v>
       </c>
@@ -12746,15 +12754,15 @@
         <v>0839</v>
       </c>
       <c r="M197" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0839&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0839&lt;/Border&gt;</v>
       </c>
       <c r="N197" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0839&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" hidden="1">
       <c r="A198">
         <v>840</v>
       </c>
@@ -12790,15 +12798,15 @@
         <v>0840</v>
       </c>
       <c r="M198" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0840&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0840&lt;/Border&gt;</v>
       </c>
       <c r="N198" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0840&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" hidden="1">
       <c r="A199">
         <v>931</v>
       </c>
@@ -12834,15 +12842,15 @@
         <v>0931</v>
       </c>
       <c r="M199" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0931&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0931&lt;/Border&gt;</v>
       </c>
       <c r="N199" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;0931&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" hidden="1">
       <c r="A200">
         <v>933</v>
       </c>
@@ -12878,15 +12886,15 @@
         <v>0933</v>
       </c>
       <c r="M200" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0933&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0933&lt;/Border&gt;</v>
       </c>
       <c r="N200" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0933&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" hidden="1">
       <c r="A201">
         <v>934</v>
       </c>
@@ -12922,15 +12930,15 @@
         <v>0934</v>
       </c>
       <c r="M201" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0934&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0934&lt;/Border&gt;</v>
       </c>
       <c r="N201" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;0934&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" hidden="1">
       <c r="A202">
         <v>936</v>
       </c>
@@ -12966,15 +12974,15 @@
         <v>0936</v>
       </c>
       <c r="M202" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0936&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0936&lt;/Border&gt;</v>
       </c>
       <c r="N202" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;0936&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" hidden="1">
       <c r="A203">
         <v>938</v>
       </c>
@@ -13010,15 +13018,15 @@
         <v>0938</v>
       </c>
       <c r="M203" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;0938&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0938&lt;/Border&gt;</v>
       </c>
       <c r="N203" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;0938&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" hidden="1">
       <c r="A204">
         <v>1034</v>
       </c>
@@ -13054,15 +13062,15 @@
         <v>1034</v>
       </c>
       <c r="M204" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1034&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1034&lt;/Border&gt;</v>
       </c>
       <c r="N204" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1034&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" hidden="1">
       <c r="A205">
         <v>1036</v>
       </c>
@@ -13098,15 +13106,15 @@
         <v>1036</v>
       </c>
       <c r="M205" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1036&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1036&lt;/Border&gt;</v>
       </c>
       <c r="N205" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1036&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" hidden="1">
       <c r="A206">
         <v>1038</v>
       </c>
@@ -13142,15 +13150,15 @@
         <v>1038</v>
       </c>
       <c r="M206" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1038&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1038&lt;/Border&gt;</v>
       </c>
       <c r="N206" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1038&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" hidden="1">
       <c r="A207">
         <v>1235</v>
       </c>
@@ -13186,15 +13194,15 @@
         <v>1235</v>
       </c>
       <c r="M207" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1235&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;1235&lt;/Border&gt;</v>
       </c>
       <c r="N207" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;1235&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" hidden="1">
       <c r="A208">
         <v>1236</v>
       </c>
@@ -13230,15 +13238,15 @@
         <v>1236</v>
       </c>
       <c r="M208" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1236&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1236&lt;/Border&gt;</v>
       </c>
       <c r="N208" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1236&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" hidden="1">
       <c r="A209">
         <v>1333</v>
       </c>
@@ -13274,15 +13282,15 @@
         <v>1333</v>
       </c>
       <c r="M209" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1333&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1333&lt;/Border&gt;</v>
       </c>
       <c r="N209" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1333&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" hidden="1">
       <c r="A210">
         <v>1334</v>
       </c>
@@ -13318,15 +13326,15 @@
         <v>1334</v>
       </c>
       <c r="M210" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1334&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;1334&lt;/Border&gt;</v>
       </c>
       <c r="N210" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#"&gt;1334&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" hidden="1">
       <c r="A211">
         <v>1335</v>
       </c>
@@ -13362,15 +13370,15 @@
         <v>1335</v>
       </c>
       <c r="M211" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1335&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1335&lt;/Border&gt;</v>
       </c>
       <c r="N211" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1335&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" hidden="1">
       <c r="A212">
         <v>1338</v>
       </c>
@@ -13406,15 +13414,15 @@
         <v>1338</v>
       </c>
       <c r="M212" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1338&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1338&lt;/Border&gt;</v>
       </c>
       <c r="N212" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1338&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" hidden="1">
       <c r="A213">
         <v>1339</v>
       </c>
@@ -13450,15 +13458,15 @@
         <v>1339</v>
       </c>
       <c r="M213" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1339&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1339&lt;/Border&gt;</v>
       </c>
       <c r="N213" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1339&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" hidden="1">
       <c r="A214">
         <v>1436</v>
       </c>
@@ -13494,15 +13502,15 @@
         <v>1436</v>
       </c>
       <c r="M214" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1436&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;1436&lt;/Border&gt;</v>
       </c>
       <c r="N214" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#"&gt;1436&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" hidden="1">
       <c r="A215">
         <v>1438</v>
       </c>
@@ -13538,15 +13546,15 @@
         <v>1438</v>
       </c>
       <c r="M215" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1438&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1438&lt;/Border&gt;</v>
       </c>
       <c r="N215" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1438&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" hidden="1">
       <c r="A216">
         <v>1533</v>
       </c>
@@ -13582,15 +13590,15 @@
         <v>1533</v>
       </c>
       <c r="M216" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1533&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1533&lt;/Border&gt;</v>
       </c>
       <c r="N216" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1533&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" hidden="1">
       <c r="A217">
         <v>1534</v>
       </c>
@@ -13626,15 +13634,15 @@
         <v>1534</v>
       </c>
       <c r="M217" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1534&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1534&lt;/Border&gt;</v>
       </c>
       <c r="N217" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1534&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" hidden="1">
       <c r="A218">
         <v>1535</v>
       </c>
@@ -13670,15 +13678,15 @@
         <v>1535</v>
       </c>
       <c r="M218" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1535&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1535&lt;/Border&gt;</v>
       </c>
       <c r="N218" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1535&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" hidden="1">
       <c r="A219">
         <v>1537</v>
       </c>
@@ -13714,15 +13722,15 @@
         <v>1537</v>
       </c>
       <c r="M219" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1537&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1537&lt;/Border&gt;</v>
       </c>
       <c r="N219" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1537&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" hidden="1">
       <c r="A220">
         <v>1631</v>
       </c>
@@ -13758,15 +13766,15 @@
         <v>1631</v>
       </c>
       <c r="M220" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1631&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1631&lt;/Border&gt;</v>
       </c>
       <c r="N220" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1631&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" hidden="1">
       <c r="A221">
         <v>1634</v>
       </c>
@@ -13802,15 +13810,15 @@
         <v>1634</v>
       </c>
       <c r="M221" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1634&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1634&lt;/Border&gt;</v>
       </c>
       <c r="N221" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1634&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" hidden="1">
       <c r="A222">
         <v>1637</v>
       </c>
@@ -13846,15 +13854,15 @@
         <v>1637</v>
       </c>
       <c r="M222" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1637&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1637&lt;/Border&gt;</v>
       </c>
       <c r="N222" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1637&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" hidden="1">
       <c r="A223">
         <v>1731</v>
       </c>
@@ -13890,15 +13898,15 @@
         <v>1731</v>
       </c>
       <c r="M223" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1731&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1731&lt;/Border&gt;</v>
       </c>
       <c r="N223" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1731&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" hidden="1">
       <c r="A224">
         <v>1733</v>
       </c>
@@ -13934,15 +13942,15 @@
         <v>1733</v>
       </c>
       <c r="M224" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1733&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1733&lt;/Border&gt;</v>
       </c>
       <c r="N224" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1733&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" hidden="1">
       <c r="A225">
         <v>1734</v>
       </c>
@@ -13978,15 +13986,15 @@
         <v>1734</v>
       </c>
       <c r="M225" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1734&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1734&lt;/Border&gt;</v>
       </c>
       <c r="N225" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1734&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" hidden="1">
       <c r="A226">
         <v>1735</v>
       </c>
@@ -14022,15 +14030,15 @@
         <v>1735</v>
       </c>
       <c r="M226" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1735&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1735&lt;/Border&gt;</v>
       </c>
       <c r="N226" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1735&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" hidden="1">
       <c r="A227">
         <v>1736</v>
       </c>
@@ -14066,15 +14074,15 @@
         <v>1736</v>
       </c>
       <c r="M227" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1736&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1736&lt;/Border&gt;</v>
       </c>
       <c r="N227" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1736&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" hidden="1">
       <c r="A228">
         <v>1835</v>
       </c>
@@ -14110,15 +14118,15 @@
         <v>1835</v>
       </c>
       <c r="M228" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1835&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1835&lt;/Border&gt;</v>
       </c>
       <c r="N228" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;1835&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" hidden="1">
       <c r="A229">
         <v>1931</v>
       </c>
@@ -14154,15 +14162,15 @@
         <v>1931</v>
       </c>
       <c r="M229" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1931&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1931&lt;/Border&gt;</v>
       </c>
       <c r="N229" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;1931&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" hidden="1">
       <c r="A230">
         <v>1933</v>
       </c>
@@ -14198,15 +14206,15 @@
         <v>1933</v>
       </c>
       <c r="M230" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;1933&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1933&lt;/Border&gt;</v>
       </c>
       <c r="N230" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;1933&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" hidden="1">
       <c r="A231">
         <v>2133</v>
       </c>
@@ -14242,15 +14250,15 @@
         <v>2133</v>
       </c>
       <c r="M231" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2133&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2133&lt;/Border&gt;</v>
       </c>
       <c r="N231" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2133&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" hidden="1">
       <c r="A232">
         <v>2134</v>
       </c>
@@ -14286,15 +14294,15 @@
         <v>2134</v>
       </c>
       <c r="M232" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2134&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2134&lt;/Border&gt;</v>
       </c>
       <c r="N232" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2134&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" hidden="1">
       <c r="A233">
         <v>2232</v>
       </c>
@@ -14330,15 +14338,15 @@
         <v>2232</v>
       </c>
       <c r="M233" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2232&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2232&lt;/Border&gt;</v>
       </c>
       <c r="N233" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#"&gt;2232&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" hidden="1">
       <c r="A234">
         <v>2233</v>
       </c>
@@ -14374,15 +14382,15 @@
         <v>2233</v>
       </c>
       <c r="M234" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2233&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2233&lt;/Border&gt;</v>
       </c>
       <c r="N234" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#"&gt;2233&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" hidden="1">
       <c r="A235">
         <v>2938</v>
       </c>
@@ -14418,15 +14426,15 @@
         <v>2938</v>
       </c>
       <c r="M235" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2938&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2938&lt;/Border&gt;</v>
       </c>
       <c r="N235" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="NEUTRAL" Color="#"&gt;2938&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" hidden="1">
       <c r="A236">
         <v>2118</v>
       </c>
@@ -14458,16 +14466,16 @@
         <f>TEXT(Table1[[#This Row],[Column1]],"0000")</f>
         <v>2118</v>
       </c>
-      <c r="M236" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#"&gt;2118&lt;/Border&gt;</v>
-      </c>
-      <c r="N236" s="4" t="str">
-        <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="1:14" ht="20">
+      <c r="M236" t="e">
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N236" s="4" t="e">
+        <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="20" hidden="1">
       <c r="A237">
         <v>2223</v>
       </c>
@@ -14506,15 +14514,15 @@
         <v>2223</v>
       </c>
       <c r="M237" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#6b00bd"&gt;2223&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#6b00bd"&gt;2223&lt;/Border&gt;</v>
       </c>
       <c r="N237" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#6b00bd"&gt;2223&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" ht="20">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#6b00bd"&gt;2223&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="20" hidden="1">
       <c r="A238">
         <v>1222</v>
       </c>
@@ -14553,15 +14561,15 @@
         <v>1222</v>
       </c>
       <c r="M238" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#8a3900"&gt;1222&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#8a3900"&gt;1222&lt;/Border&gt;</v>
       </c>
       <c r="N238" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#8a3900"&gt;1222&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" ht="20">
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#8a3900"&gt;1222&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="20" hidden="1">
       <c r="A239">
         <v>1514</v>
       </c>
@@ -14600,15 +14608,15 @@
         <v>1514</v>
       </c>
       <c r="M239" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#8a3900"&gt;1514&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#8a3900"&gt;1514&lt;/Border&gt;</v>
       </c>
       <c r="N239" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#8a3900"&gt;1514&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" ht="20">
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#8a3900"&gt;1514&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="20" hidden="1">
       <c r="A240">
         <v>2113</v>
       </c>
@@ -14647,15 +14655,15 @@
         <v>2113</v>
       </c>
       <c r="M240" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#8a3900"&gt;2113&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#8a3900"&gt;2113&lt;/Border&gt;</v>
       </c>
       <c r="N240" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#8a3900"&gt;2113&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Hostile" Color="#8a3900"&gt;2113&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="18" hidden="1">
       <c r="A241">
         <v>2116</v>
       </c>
@@ -14694,15 +14702,15 @@
         <v>2116</v>
       </c>
       <c r="M241" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#a733ff"&gt;2116&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#a733ff"&gt;2116&lt;/Border&gt;</v>
       </c>
       <c r="N241" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#a733ff"&gt;2116&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#a733ff"&gt;2116&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" hidden="1">
       <c r="A242">
         <v>408</v>
       </c>
@@ -14725,9 +14733,8 @@
         <f>MID(G242,7,1)</f>
         <v>5</v>
       </c>
-      <c r="I242" t="str">
-        <f>IF((HEX2DEC(H242)&lt;3),"Tolerant",IF(HEX2DEC(H242)&lt;6,"NEUTRAL",IF(HEX2DEC(H242)&lt;10,"Suspicions",IF(HEX2DEC(H242)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I242" t="s">
+        <v>1183</v>
       </c>
       <c r="J242" t="s">
         <v>1190</v>
@@ -14741,15 +14748,15 @@
         <v>0408</v>
       </c>
       <c r="M242" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;0408&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;0408&lt;/Border&gt;</v>
       </c>
       <c r="N242" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;0408&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;0408&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" hidden="1">
       <c r="A243">
         <v>608</v>
       </c>
@@ -14772,9 +14779,8 @@
         <f>MID(G243,7,1)</f>
         <v>4</v>
       </c>
-      <c r="I243" t="str">
-        <f>IF((HEX2DEC(H243)&lt;3),"Tolerant",IF(HEX2DEC(H243)&lt;6,"NEUTRAL",IF(HEX2DEC(H243)&lt;10,"Suspicions",IF(HEX2DEC(H243)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I243" t="s">
+        <v>1183</v>
       </c>
       <c r="J243" t="s">
         <v>1190</v>
@@ -14788,15 +14794,15 @@
         <v>0608</v>
       </c>
       <c r="M243" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;0608&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;0608&lt;/Border&gt;</v>
       </c>
       <c r="N243" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;0608&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;0608&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" hidden="1">
       <c r="A244">
         <v>702</v>
       </c>
@@ -14819,9 +14825,8 @@
         <f>MID(G244,7,1)</f>
         <v>5</v>
       </c>
-      <c r="I244" t="str">
-        <f>IF((HEX2DEC(H244)&lt;3),"Tolerant",IF(HEX2DEC(H244)&lt;6,"NEUTRAL",IF(HEX2DEC(H244)&lt;10,"Suspicions",IF(HEX2DEC(H244)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I244" t="s">
+        <v>1183</v>
       </c>
       <c r="J244" t="s">
         <v>1190</v>
@@ -14835,15 +14840,15 @@
         <v>0702</v>
       </c>
       <c r="M244" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;0702&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;0702&lt;/Border&gt;</v>
       </c>
       <c r="N244" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;0702&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;0702&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" hidden="1">
       <c r="A245">
         <v>914</v>
       </c>
@@ -14866,9 +14871,8 @@
         <f>MID(G245,7,1)</f>
         <v>4</v>
       </c>
-      <c r="I245" t="str">
-        <f>IF((HEX2DEC(H245)&lt;3),"Tolerant",IF(HEX2DEC(H245)&lt;6,"NEUTRAL",IF(HEX2DEC(H245)&lt;10,"Suspicions",IF(HEX2DEC(H245)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I245" t="s">
+        <v>1183</v>
       </c>
       <c r="J245" t="s">
         <v>1190</v>
@@ -14882,15 +14886,15 @@
         <v>0914</v>
       </c>
       <c r="M245" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;0914&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;0914&lt;/Border&gt;</v>
       </c>
       <c r="N245" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;0914&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;0914&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" hidden="1">
       <c r="A246">
         <v>1015</v>
       </c>
@@ -14913,9 +14917,8 @@
         <f>MID(G246,7,1)</f>
         <v>3</v>
       </c>
-      <c r="I246" t="str">
-        <f>IF((HEX2DEC(H246)&lt;3),"Tolerant",IF(HEX2DEC(H246)&lt;6,"NEUTRAL",IF(HEX2DEC(H246)&lt;10,"Suspicions",IF(HEX2DEC(H246)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I246" t="s">
+        <v>1183</v>
       </c>
       <c r="J246" t="s">
         <v>1190</v>
@@ -14929,15 +14932,15 @@
         <v>1015</v>
       </c>
       <c r="M246" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;1015&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;1015&lt;/Border&gt;</v>
       </c>
       <c r="N246" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;1015&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;1015&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" hidden="1">
       <c r="A247">
         <v>1410</v>
       </c>
@@ -14960,9 +14963,8 @@
         <f>MID(G247,7,1)</f>
         <v>5</v>
       </c>
-      <c r="I247" t="str">
-        <f>IF((HEX2DEC(H247)&lt;3),"Tolerant",IF(HEX2DEC(H247)&lt;6,"NEUTRAL",IF(HEX2DEC(H247)&lt;10,"Suspicions",IF(HEX2DEC(H247)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I247" t="s">
+        <v>1183</v>
       </c>
       <c r="J247" t="s">
         <v>1190</v>
@@ -14976,15 +14978,15 @@
         <v>1410</v>
       </c>
       <c r="M247" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;1410&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;1410&lt;/Border&gt;</v>
       </c>
       <c r="N247" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;1410&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;1410&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" hidden="1">
       <c r="A248">
         <v>1417</v>
       </c>
@@ -15007,9 +15009,8 @@
         <f>MID(G248,7,1)</f>
         <v>3</v>
       </c>
-      <c r="I248" t="str">
-        <f>IF((HEX2DEC(H248)&lt;3),"Tolerant",IF(HEX2DEC(H248)&lt;6,"NEUTRAL",IF(HEX2DEC(H248)&lt;10,"Suspicions",IF(HEX2DEC(H248)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I248" t="s">
+        <v>1183</v>
       </c>
       <c r="J248" t="s">
         <v>1190</v>
@@ -15023,15 +15024,15 @@
         <v>1417</v>
       </c>
       <c r="M248" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;1417&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;1417&lt;/Border&gt;</v>
       </c>
       <c r="N248" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;1417&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;1417&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" hidden="1">
       <c r="A249">
         <v>2020</v>
       </c>
@@ -15054,9 +15055,8 @@
         <f>MID(G249,7,1)</f>
         <v>4</v>
       </c>
-      <c r="I249" t="str">
-        <f>IF((HEX2DEC(H249)&lt;3),"Tolerant",IF(HEX2DEC(H249)&lt;6,"NEUTRAL",IF(HEX2DEC(H249)&lt;10,"Suspicions",IF(HEX2DEC(H249)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I249" t="s">
+        <v>1183</v>
       </c>
       <c r="J249" t="s">
         <v>1190</v>
@@ -15070,15 +15070,15 @@
         <v>2020</v>
       </c>
       <c r="M249" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2020&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2020&lt;/Border&gt;</v>
       </c>
       <c r="N249" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2020&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2020&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" hidden="1">
       <c r="A250">
         <v>2123</v>
       </c>
@@ -15101,9 +15101,8 @@
         <f>MID(G250,7,1)</f>
         <v>4</v>
       </c>
-      <c r="I250" t="str">
-        <f>IF((HEX2DEC(H250)&lt;3),"Tolerant",IF(HEX2DEC(H250)&lt;6,"NEUTRAL",IF(HEX2DEC(H250)&lt;10,"Suspicions",IF(HEX2DEC(H250)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I250" t="s">
+        <v>1183</v>
       </c>
       <c r="J250" t="s">
         <v>1190</v>
@@ -15117,15 +15116,15 @@
         <v>2123</v>
       </c>
       <c r="M250" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2123&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2123&lt;/Border&gt;</v>
       </c>
       <c r="N250" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2123&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2123&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" hidden="1">
       <c r="A251">
         <v>2137</v>
       </c>
@@ -15148,9 +15147,8 @@
         <f>MID(G251,7,1)</f>
         <v>5</v>
       </c>
-      <c r="I251" t="str">
-        <f>IF((HEX2DEC(H251)&lt;3),"Tolerant",IF(HEX2DEC(H251)&lt;6,"NEUTRAL",IF(HEX2DEC(H251)&lt;10,"Suspicions",IF(HEX2DEC(H251)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I251" t="s">
+        <v>1183</v>
       </c>
       <c r="J251" t="s">
         <v>1190</v>
@@ -15164,15 +15162,15 @@
         <v>2137</v>
       </c>
       <c r="M251" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2137&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2137&lt;/Border&gt;</v>
       </c>
       <c r="N251" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2137&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2137&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" hidden="1">
       <c r="A252">
         <v>2216</v>
       </c>
@@ -15195,9 +15193,8 @@
         <f>MID(G252,7,1)</f>
         <v>4</v>
       </c>
-      <c r="I252" t="str">
-        <f>IF((HEX2DEC(H252)&lt;3),"Tolerant",IF(HEX2DEC(H252)&lt;6,"NEUTRAL",IF(HEX2DEC(H252)&lt;10,"Suspicions",IF(HEX2DEC(H252)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I252" t="s">
+        <v>1183</v>
       </c>
       <c r="J252" t="s">
         <v>1190</v>
@@ -15211,15 +15208,15 @@
         <v>2216</v>
       </c>
       <c r="M252" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2216&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2216&lt;/Border&gt;</v>
       </c>
       <c r="N252" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2216&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2216&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" hidden="1">
       <c r="A253">
         <v>2322</v>
       </c>
@@ -15242,9 +15239,8 @@
         <f>MID(G253,7,1)</f>
         <v>3</v>
       </c>
-      <c r="I253" t="str">
-        <f>IF((HEX2DEC(H253)&lt;3),"Tolerant",IF(HEX2DEC(H253)&lt;6,"NEUTRAL",IF(HEX2DEC(H253)&lt;10,"Suspicions",IF(HEX2DEC(H253)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I253" t="s">
+        <v>1183</v>
       </c>
       <c r="J253" t="s">
         <v>1190</v>
@@ -15258,15 +15254,15 @@
         <v>2322</v>
       </c>
       <c r="M253" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2322&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2322&lt;/Border&gt;</v>
       </c>
       <c r="N253" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2322&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2322&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" hidden="1">
       <c r="A254">
         <v>2332</v>
       </c>
@@ -15289,9 +15285,8 @@
         <f>MID(G254,7,1)</f>
         <v>3</v>
       </c>
-      <c r="I254" t="str">
-        <f>IF((HEX2DEC(H254)&lt;3),"Tolerant",IF(HEX2DEC(H254)&lt;6,"NEUTRAL",IF(HEX2DEC(H254)&lt;10,"Suspicions",IF(HEX2DEC(H254)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I254" t="s">
+        <v>1183</v>
       </c>
       <c r="J254" t="s">
         <v>1190</v>
@@ -15305,15 +15300,15 @@
         <v>2332</v>
       </c>
       <c r="M254" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2332&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2332&lt;/Border&gt;</v>
       </c>
       <c r="N254" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2332&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2332&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" hidden="1">
       <c r="A255">
         <v>2819</v>
       </c>
@@ -15336,9 +15331,8 @@
         <f>MID(G255,7,1)</f>
         <v>4</v>
       </c>
-      <c r="I255" t="str">
-        <f>IF((HEX2DEC(H255)&lt;3),"Tolerant",IF(HEX2DEC(H255)&lt;6,"NEUTRAL",IF(HEX2DEC(H255)&lt;10,"Suspicions",IF(HEX2DEC(H255)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I255" t="s">
+        <v>1183</v>
       </c>
       <c r="J255" t="s">
         <v>1190</v>
@@ -15352,15 +15346,15 @@
         <v>2819</v>
       </c>
       <c r="M255" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2819&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2819&lt;/Border&gt;</v>
       </c>
       <c r="N255" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2819&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2819&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" hidden="1">
       <c r="A256">
         <v>2820</v>
       </c>
@@ -15383,9 +15377,8 @@
         <f>MID(G256,7,1)</f>
         <v>3</v>
       </c>
-      <c r="I256" t="str">
-        <f>IF((HEX2DEC(H256)&lt;3),"Tolerant",IF(HEX2DEC(H256)&lt;6,"NEUTRAL",IF(HEX2DEC(H256)&lt;10,"Suspicions",IF(HEX2DEC(H256)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I256" t="s">
+        <v>1183</v>
       </c>
       <c r="J256" t="s">
         <v>1190</v>
@@ -15399,15 +15392,15 @@
         <v>2820</v>
       </c>
       <c r="M256" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2820&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2820&lt;/Border&gt;</v>
       </c>
       <c r="N256" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;2820&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;2820&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" hidden="1">
       <c r="A257">
         <v>3029</v>
       </c>
@@ -15430,9 +15423,8 @@
         <f>MID(G257,7,1)</f>
         <v>4</v>
       </c>
-      <c r="I257" t="str">
-        <f>IF((HEX2DEC(H257)&lt;3),"Tolerant",IF(HEX2DEC(H257)&lt;6,"NEUTRAL",IF(HEX2DEC(H257)&lt;10,"Suspicions",IF(HEX2DEC(H257)&lt;12,"Unfriendly","Hostile"))))</f>
-        <v>NEUTRAL</v>
+      <c r="I257" t="s">
+        <v>1183</v>
       </c>
       <c r="J257" t="s">
         <v>1190</v>
@@ -15446,15 +15438,15 @@
         <v>3029</v>
       </c>
       <c r="M257" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;3029&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;3029&lt;/Border&gt;</v>
       </c>
       <c r="N257" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#C0C0C0"&gt;3029&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Neutral" Color="#C0C0C0"&gt;3029&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="18" hidden="1">
       <c r="A258">
         <v>103</v>
       </c>
@@ -15493,15 +15485,15 @@
         <v>0103</v>
       </c>
       <c r="M258" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;0103&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;0103&lt;/Border&gt;</v>
       </c>
       <c r="N258" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;0103&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;0103&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="18" hidden="1">
       <c r="A259">
         <v>209</v>
       </c>
@@ -15540,15 +15532,15 @@
         <v>0209</v>
       </c>
       <c r="M259" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;0209&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;0209&lt;/Border&gt;</v>
       </c>
       <c r="N259" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;0209&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;0209&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="18" hidden="1">
       <c r="A260">
         <v>404</v>
       </c>
@@ -15587,15 +15579,15 @@
         <v>0404</v>
       </c>
       <c r="M260" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;0404&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;0404&lt;/Border&gt;</v>
       </c>
       <c r="N260" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;0404&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;0404&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="18" hidden="1">
       <c r="A261">
         <v>802</v>
       </c>
@@ -15634,12 +15626,12 @@
         <v>0802</v>
       </c>
       <c r="M261" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;0802&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;0802&lt;/Border&gt;</v>
       </c>
       <c r="N261" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;0802&lt;/Border&gt;</v>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;0802&lt;/Border&gt;</v>
       </c>
     </row>
     <row r="262" spans="1:14" ht="18">
@@ -15681,12 +15673,12 @@
         <v>1016</v>
       </c>
       <c r="M262" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1016&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1016&lt;/Border&gt;</v>
       </c>
       <c r="N262" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1016&lt;/Border&gt;</v>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1016&lt;/Border&gt;</v>
       </c>
     </row>
     <row r="263" spans="1:14" ht="18">
@@ -15728,15 +15720,15 @@
         <v>1209</v>
       </c>
       <c r="M263" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1209&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1209&lt;/Border&gt;</v>
       </c>
       <c r="N263" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1209&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1209&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="18" hidden="1">
       <c r="A264">
         <v>1216</v>
       </c>
@@ -15775,15 +15767,15 @@
         <v>1216</v>
       </c>
       <c r="M264" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1216&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1216&lt;/Border&gt;</v>
       </c>
       <c r="N264" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1216&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1216&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" ht="18" hidden="1">
       <c r="A265">
         <v>1220</v>
       </c>
@@ -15822,15 +15814,15 @@
         <v>1220</v>
       </c>
       <c r="M265" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1220&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1220&lt;/Border&gt;</v>
       </c>
       <c r="N265" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1220&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1220&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" ht="18" hidden="1">
       <c r="A266">
         <v>1221</v>
       </c>
@@ -15869,12 +15861,12 @@
         <v>1221</v>
       </c>
       <c r="M266" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1221&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1221&lt;/Border&gt;</v>
       </c>
       <c r="N266" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1221&lt;/Border&gt;</v>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1221&lt;/Border&gt;</v>
       </c>
     </row>
     <row r="267" spans="1:14" ht="18">
@@ -15916,15 +15908,15 @@
         <v>1307</v>
       </c>
       <c r="M267" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1307&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1307&lt;/Border&gt;</v>
       </c>
       <c r="N267" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1307&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1307&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="18" hidden="1">
       <c r="A268">
         <v>1519</v>
       </c>
@@ -15963,15 +15955,15 @@
         <v>1519</v>
       </c>
       <c r="M268" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1519&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1519&lt;/Border&gt;</v>
       </c>
       <c r="N268" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1519&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1519&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" ht="18" hidden="1">
       <c r="A269">
         <v>1601</v>
       </c>
@@ -16010,15 +16002,15 @@
         <v>1601</v>
       </c>
       <c r="M269" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1601&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1601&lt;/Border&gt;</v>
       </c>
       <c r="N269" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1601&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1601&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="18" hidden="1">
       <c r="A270">
         <v>1602</v>
       </c>
@@ -16057,15 +16049,15 @@
         <v>1602</v>
       </c>
       <c r="M270" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1602&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1602&lt;/Border&gt;</v>
       </c>
       <c r="N270" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1602&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1602&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="18" hidden="1">
       <c r="A271">
         <v>1605</v>
       </c>
@@ -16104,15 +16096,15 @@
         <v>1605</v>
       </c>
       <c r="M271" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1605&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1605&lt;/Border&gt;</v>
       </c>
       <c r="N271" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1605&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1605&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="18" hidden="1">
       <c r="A272">
         <v>1608</v>
       </c>
@@ -16151,15 +16143,15 @@
         <v>1608</v>
       </c>
       <c r="M272" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1608&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1608&lt;/Border&gt;</v>
       </c>
       <c r="N272" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1608&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1608&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="18" hidden="1">
       <c r="A273">
         <v>1618</v>
       </c>
@@ -16198,15 +16190,15 @@
         <v>1618</v>
       </c>
       <c r="M273" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1618&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1618&lt;/Border&gt;</v>
       </c>
       <c r="N273" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1618&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1618&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="18" hidden="1">
       <c r="A274">
         <v>1715</v>
       </c>
@@ -16245,15 +16237,15 @@
         <v>1715</v>
       </c>
       <c r="M274" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1715&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1715&lt;/Border&gt;</v>
       </c>
       <c r="N274" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1715&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="275" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1715&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="18" hidden="1">
       <c r="A275">
         <v>1919</v>
       </c>
@@ -16292,15 +16284,15 @@
         <v>1919</v>
       </c>
       <c r="M275" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;1919&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1919&lt;/Border&gt;</v>
       </c>
       <c r="N275" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;1919&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="276" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;1919&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="18" hidden="1">
       <c r="A276">
         <v>2327</v>
       </c>
@@ -16339,15 +16331,15 @@
         <v>2327</v>
       </c>
       <c r="M276" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;2327&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2327&lt;/Border&gt;</v>
       </c>
       <c r="N276" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;2327&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="277" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2327&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" ht="18" hidden="1">
       <c r="A277">
         <v>2426</v>
       </c>
@@ -16386,15 +16378,15 @@
         <v>2426</v>
       </c>
       <c r="M277" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;2426&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2426&lt;/Border&gt;</v>
       </c>
       <c r="N277" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;2426&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2426&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="18" hidden="1">
       <c r="A278">
         <v>2428</v>
       </c>
@@ -16433,15 +16425,15 @@
         <v>2428</v>
       </c>
       <c r="M278" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;2428&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2428&lt;/Border&gt;</v>
       </c>
       <c r="N278" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;2428&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2428&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="18" hidden="1">
       <c r="A279">
         <v>2621</v>
       </c>
@@ -16480,15 +16472,15 @@
         <v>2621</v>
       </c>
       <c r="M279" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;2621&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2621&lt;/Border&gt;</v>
       </c>
       <c r="N279" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;2621&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2621&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" ht="18" hidden="1">
       <c r="A280">
         <v>2625</v>
       </c>
@@ -16527,15 +16519,15 @@
         <v>2625</v>
       </c>
       <c r="M280" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;2625&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2625&lt;/Border&gt;</v>
       </c>
       <c r="N280" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;2625&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2625&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="18" hidden="1">
       <c r="A281">
         <v>2721</v>
       </c>
@@ -16574,15 +16566,15 @@
         <v>2721</v>
       </c>
       <c r="M281" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;2721&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2721&lt;/Border&gt;</v>
       </c>
       <c r="N281" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;2721&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2721&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="18" hidden="1">
       <c r="A282">
         <v>2823</v>
       </c>
@@ -16621,15 +16613,15 @@
         <v>2823</v>
       </c>
       <c r="M282" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#c880ff"&gt;2823&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2823&lt;/Border&gt;</v>
       </c>
       <c r="N282" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#c880ff"&gt;2823&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Tolerant" Color="#c880ff"&gt;2823&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="18" hidden="1">
       <c r="A283">
         <v>811</v>
       </c>
@@ -16668,15 +16660,15 @@
         <v>0811</v>
       </c>
       <c r="M283" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#f09c00"&gt;0811&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#f09c00"&gt;0811&lt;/Border&gt;</v>
       </c>
       <c r="N283" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#f09c00"&gt;0811&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#f09c00"&gt;0811&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="18" hidden="1">
       <c r="A284">
         <v>2018</v>
       </c>
@@ -16715,15 +16707,15 @@
         <v>2018</v>
       </c>
       <c r="M284" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#f09c00"&gt;2018&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#f09c00"&gt;2018&lt;/Border&gt;</v>
       </c>
       <c r="N284" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#f09c00"&gt;2018&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#f09c00"&gt;2018&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="18" hidden="1">
       <c r="A285">
         <v>2221</v>
       </c>
@@ -16762,15 +16754,15 @@
         <v>2221</v>
       </c>
       <c r="M285" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#f09c00"&gt;2221&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#f09c00"&gt;2221&lt;/Border&gt;</v>
       </c>
       <c r="N285" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#f09c00"&gt;2221&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#f09c00"&gt;2221&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="18" hidden="1">
       <c r="A286">
         <v>2424</v>
       </c>
@@ -16809,15 +16801,15 @@
         <v>2424</v>
       </c>
       <c r="M286" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#f09c00"&gt;2424&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#f09c00"&gt;2424&lt;/Border&gt;</v>
       </c>
       <c r="N286" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#f09c00"&gt;2424&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14" ht="18">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#f09c00"&gt;2424&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="18" hidden="1">
       <c r="A287">
         <v>2824</v>
       </c>
@@ -16856,12 +16848,12 @@
         <v>2824</v>
       </c>
       <c r="M287" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#f09c00"&gt;2824&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#f09c00"&gt;2824&lt;/Border&gt;</v>
       </c>
       <c r="N287" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#f09c00"&gt;2824&lt;/Border&gt;</v>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#f09c00"&gt;2824&lt;/Border&gt;</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="18">
@@ -16903,15 +16895,15 @@
         <v>3140</v>
       </c>
       <c r="M288" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#f09c00"&gt;3140&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#f09c00"&gt;3140&lt;/Border&gt;</v>
       </c>
       <c r="N288" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#f09c00"&gt;3140&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="289" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Unfriendly" Color="#f09c00"&gt;3140&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" hidden="1">
       <c r="A289">
         <v>201</v>
       </c>
@@ -16950,15 +16942,15 @@
         <v>0201</v>
       </c>
       <c r="M289" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;0201&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0201&lt;/Border&gt;</v>
       </c>
       <c r="N289" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;0201&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0201&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" hidden="1">
       <c r="A290">
         <v>202</v>
       </c>
@@ -16997,15 +16989,15 @@
         <v>0202</v>
       </c>
       <c r="M290" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;0202&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0202&lt;/Border&gt;</v>
       </c>
       <c r="N290" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;0202&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0202&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" hidden="1">
       <c r="A291">
         <v>204</v>
       </c>
@@ -17044,15 +17036,15 @@
         <v>0204</v>
       </c>
       <c r="M291" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;0204&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0204&lt;/Border&gt;</v>
       </c>
       <c r="N291" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;0204&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0204&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" hidden="1">
       <c r="A292">
         <v>307</v>
       </c>
@@ -17091,15 +17083,15 @@
         <v>0307</v>
       </c>
       <c r="M292" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;0307&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0307&lt;/Border&gt;</v>
       </c>
       <c r="N292" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;0307&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0307&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" hidden="1">
       <c r="A293">
         <v>609</v>
       </c>
@@ -17138,15 +17130,15 @@
         <v>0609</v>
       </c>
       <c r="M293" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;0609&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0609&lt;/Border&gt;</v>
       </c>
       <c r="N293" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;0609&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="294" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0609&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" hidden="1">
       <c r="A294">
         <v>809</v>
       </c>
@@ -17185,15 +17177,15 @@
         <v>0809</v>
       </c>
       <c r="M294" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;0809&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0809&lt;/Border&gt;</v>
       </c>
       <c r="N294" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;0809&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="295" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0809&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" hidden="1">
       <c r="A295">
         <v>813</v>
       </c>
@@ -17232,15 +17224,15 @@
         <v>0813</v>
       </c>
       <c r="M295" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;0813&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0813&lt;/Border&gt;</v>
       </c>
       <c r="N295" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;0813&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="296" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0813&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" hidden="1">
       <c r="A296">
         <v>820</v>
       </c>
@@ -17279,15 +17271,15 @@
         <v>0820</v>
       </c>
       <c r="M296" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;0820&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0820&lt;/Border&gt;</v>
       </c>
       <c r="N296" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;0820&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="297" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0820&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" hidden="1">
       <c r="A297">
         <v>902</v>
       </c>
@@ -17326,15 +17318,15 @@
         <v>0902</v>
       </c>
       <c r="M297" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;0902&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0902&lt;/Border&gt;</v>
       </c>
       <c r="N297" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;0902&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="298" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;0902&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" hidden="1">
       <c r="A298">
         <v>1110</v>
       </c>
@@ -17373,15 +17365,15 @@
         <v>1110</v>
       </c>
       <c r="M298" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1110&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1110&lt;/Border&gt;</v>
       </c>
       <c r="N298" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1110&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="299" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1110&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" hidden="1">
       <c r="A299">
         <v>1201</v>
       </c>
@@ -17420,15 +17412,15 @@
         <v>1201</v>
       </c>
       <c r="M299" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1201&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1201&lt;/Border&gt;</v>
       </c>
       <c r="N299" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1201&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="300" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1201&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" hidden="1">
       <c r="A300">
         <v>1219</v>
       </c>
@@ -17467,15 +17459,15 @@
         <v>1219</v>
       </c>
       <c r="M300" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1219&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1219&lt;/Border&gt;</v>
       </c>
       <c r="N300" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1219&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="301" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1219&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" hidden="1">
       <c r="A301">
         <v>1305</v>
       </c>
@@ -17514,15 +17506,15 @@
         <v>1305</v>
       </c>
       <c r="M301" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1305&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1305&lt;/Border&gt;</v>
       </c>
       <c r="N301" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1305&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="302" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1305&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" hidden="1">
       <c r="A302">
         <v>1317</v>
       </c>
@@ -17561,15 +17553,15 @@
         <v>1317</v>
       </c>
       <c r="M302" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1317&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1317&lt;/Border&gt;</v>
       </c>
       <c r="N302" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1317&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="303" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1317&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" hidden="1">
       <c r="A303">
         <v>1319</v>
       </c>
@@ -17608,15 +17600,15 @@
         <v>1319</v>
       </c>
       <c r="M303" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1319&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1319&lt;/Border&gt;</v>
       </c>
       <c r="N303" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1319&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="304" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1319&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" hidden="1">
       <c r="A304">
         <v>1402</v>
       </c>
@@ -17655,15 +17647,15 @@
         <v>1402</v>
       </c>
       <c r="M304" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1402&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1402&lt;/Border&gt;</v>
       </c>
       <c r="N304" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1402&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="305" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1402&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" hidden="1">
       <c r="A305">
         <v>1502</v>
       </c>
@@ -17702,15 +17694,15 @@
         <v>1502</v>
       </c>
       <c r="M305" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1502&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1502&lt;/Border&gt;</v>
       </c>
       <c r="N305" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1502&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="306" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1502&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" hidden="1">
       <c r="A306">
         <v>1518</v>
       </c>
@@ -17749,15 +17741,15 @@
         <v>1518</v>
       </c>
       <c r="M306" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1518&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1518&lt;/Border&gt;</v>
       </c>
       <c r="N306" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1518&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="307" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1518&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" hidden="1">
       <c r="A307">
         <v>1613</v>
       </c>
@@ -17796,15 +17788,15 @@
         <v>1613</v>
       </c>
       <c r="M307" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1613&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1613&lt;/Border&gt;</v>
       </c>
       <c r="N307" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1613&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="308" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1613&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" hidden="1">
       <c r="A308">
         <v>1619</v>
       </c>
@@ -17843,15 +17835,15 @@
         <v>1619</v>
       </c>
       <c r="M308" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1619&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1619&lt;/Border&gt;</v>
       </c>
       <c r="N308" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1619&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="309" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1619&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" hidden="1">
       <c r="A309">
         <v>1719</v>
       </c>
@@ -17890,15 +17882,15 @@
         <v>1719</v>
       </c>
       <c r="M309" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1719&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1719&lt;/Border&gt;</v>
       </c>
       <c r="N309" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1719&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="310" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1719&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" hidden="1">
       <c r="A310">
         <v>1801</v>
       </c>
@@ -17937,15 +17929,15 @@
         <v>1801</v>
       </c>
       <c r="M310" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1801&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1801&lt;/Border&gt;</v>
       </c>
       <c r="N310" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1801&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1801&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" hidden="1">
       <c r="A311">
         <v>1816</v>
       </c>
@@ -17984,15 +17976,15 @@
         <v>1816</v>
       </c>
       <c r="M311" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1816&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1816&lt;/Border&gt;</v>
       </c>
       <c r="N311" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1816&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="312" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1816&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" hidden="1">
       <c r="A312">
         <v>1818</v>
       </c>
@@ -18031,15 +18023,15 @@
         <v>1818</v>
       </c>
       <c r="M312" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;1818&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1818&lt;/Border&gt;</v>
       </c>
       <c r="N312" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;1818&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="313" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;1818&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" hidden="1">
       <c r="A313">
         <v>2115</v>
       </c>
@@ -18078,15 +18070,15 @@
         <v>2115</v>
       </c>
       <c r="M313" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2115&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2115&lt;/Border&gt;</v>
       </c>
       <c r="N313" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2115&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2115&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" hidden="1">
       <c r="A314">
         <v>2120</v>
       </c>
@@ -18125,15 +18117,15 @@
         <v>2120</v>
       </c>
       <c r="M314" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2120&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2120&lt;/Border&gt;</v>
       </c>
       <c r="N314" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2120&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2120&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" hidden="1">
       <c r="A315">
         <v>2219</v>
       </c>
@@ -18172,15 +18164,15 @@
         <v>2219</v>
       </c>
       <c r="M315" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2219&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2219&lt;/Border&gt;</v>
       </c>
       <c r="N315" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2219&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="316" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2219&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" hidden="1">
       <c r="A316">
         <v>2234</v>
       </c>
@@ -18219,15 +18211,15 @@
         <v>2234</v>
       </c>
       <c r="M316" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2234&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2234&lt;/Border&gt;</v>
       </c>
       <c r="N316" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2234&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="317" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2234&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" hidden="1">
       <c r="A317">
         <v>2314</v>
       </c>
@@ -18266,15 +18258,15 @@
         <v>2314</v>
       </c>
       <c r="M317" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2314&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2314&lt;/Border&gt;</v>
       </c>
       <c r="N317" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2314&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="318" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2314&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" hidden="1">
       <c r="A318">
         <v>2324</v>
       </c>
@@ -18313,15 +18305,15 @@
         <v>2324</v>
       </c>
       <c r="M318" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2324&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2324&lt;/Border&gt;</v>
       </c>
       <c r="N318" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2324&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="319" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2324&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" hidden="1">
       <c r="A319">
         <v>2421</v>
       </c>
@@ -18360,15 +18352,15 @@
         <v>2421</v>
       </c>
       <c r="M319" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2421&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2421&lt;/Border&gt;</v>
       </c>
       <c r="N319" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2421&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="320" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2421&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" hidden="1">
       <c r="A320">
         <v>2425</v>
       </c>
@@ -18407,15 +18399,15 @@
         <v>2425</v>
       </c>
       <c r="M320" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2425&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2425&lt;/Border&gt;</v>
       </c>
       <c r="N320" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2425&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="321" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2425&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" hidden="1">
       <c r="A321">
         <v>2517</v>
       </c>
@@ -18454,15 +18446,15 @@
         <v>2517</v>
       </c>
       <c r="M321" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2517&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2517&lt;/Border&gt;</v>
       </c>
       <c r="N321" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2517&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2517&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" hidden="1">
       <c r="A322">
         <v>2520</v>
       </c>
@@ -18501,15 +18493,15 @@
         <v>2520</v>
       </c>
       <c r="M322" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2520&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2520&lt;/Border&gt;</v>
       </c>
       <c r="N322" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2520&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2520&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" hidden="1">
       <c r="A323">
         <v>2527</v>
       </c>
@@ -18548,15 +18540,15 @@
         <v>2527</v>
       </c>
       <c r="M323" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2527&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2527&lt;/Border&gt;</v>
       </c>
       <c r="N323" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2527&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="324" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2527&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" hidden="1">
       <c r="A324">
         <v>2719</v>
       </c>
@@ -18595,15 +18587,15 @@
         <v>2719</v>
       </c>
       <c r="M324" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2719&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2719&lt;/Border&gt;</v>
       </c>
       <c r="N324" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2719&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="325" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2719&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" hidden="1">
       <c r="A325">
         <v>2722</v>
       </c>
@@ -18642,15 +18634,15 @@
         <v>2722</v>
       </c>
       <c r="M325" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2722&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2722&lt;/Border&gt;</v>
       </c>
       <c r="N325" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2722&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2722&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" hidden="1">
       <c r="A326">
         <v>2724</v>
       </c>
@@ -18689,15 +18681,15 @@
         <v>2724</v>
       </c>
       <c r="M326" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2724&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2724&lt;/Border&gt;</v>
       </c>
       <c r="N326" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2724&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2724&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" hidden="1">
       <c r="A327">
         <v>2725</v>
       </c>
@@ -18736,15 +18728,15 @@
         <v>2725</v>
       </c>
       <c r="M327" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2725&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2725&lt;/Border&gt;</v>
       </c>
       <c r="N327" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2725&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="328" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2725&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" hidden="1">
       <c r="A328">
         <v>2821</v>
       </c>
@@ -18783,15 +18775,15 @@
         <v>2821</v>
       </c>
       <c r="M328" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2821&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2821&lt;/Border&gt;</v>
       </c>
       <c r="N328" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2821&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="329" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2821&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" hidden="1">
       <c r="A329">
         <v>2921</v>
       </c>
@@ -18830,15 +18822,15 @@
         <v>2921</v>
       </c>
       <c r="M329" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2921&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2921&lt;/Border&gt;</v>
       </c>
       <c r="N329" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2921&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="330" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2921&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" hidden="1">
       <c r="A330">
         <v>2923</v>
       </c>
@@ -18877,15 +18869,15 @@
         <v>2923</v>
       </c>
       <c r="M330" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;2923&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2923&lt;/Border&gt;</v>
       </c>
       <c r="N330" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;2923&lt;/Border&gt;</v>
-      </c>
-    </row>
-    <row r="331" spans="1:14">
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;2923&lt;/Border&gt;</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" hidden="1">
       <c r="A331">
         <v>3030</v>
       </c>
@@ -18924,12 +18916,12 @@
         <v>3030</v>
       </c>
       <c r="M331" t="str">
-        <f>"&lt;Border Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
-        <v>&lt;Border Color="#ffb833"&gt;3030&lt;/Border&gt;</v>
+        <f>"&lt;Border style="&amp;CHAR(34)&amp;"Dotted"&amp;CHAR(34)&amp;" Label="&amp;CHAR(34)&amp;Table1[[#This Row],[Column9]]&amp;CHAR(34)&amp;" Color="&amp;CHAR(34)&amp;Table1[[#This Row],[Column11]]&amp;CHAR(34)&amp;"&gt;"&amp;Table1[[#This Row],[Column12]]&amp;"&lt;/Border&gt;"</f>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;3030&lt;/Border&gt;</v>
       </c>
       <c r="N331" s="4" t="str">
         <f>IF(LEN(Table1[[#This Row],[Column13]])=31,"",Table1[[#This Row],[Column13]])</f>
-        <v>&lt;Border Color="#ffb833"&gt;3030&lt;/Border&gt;</v>
+        <v>&lt;Border style="Dotted" Label="Suspicions" Color="#ffb833"&gt;3030&lt;/Border&gt;</v>
       </c>
     </row>
   </sheetData>
